--- a/benchmarks/reports/range_ctor/graphs.xlsx
+++ b/benchmarks/reports/range_ctor/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/my mac/senior-thesis-on-skiplist/benchmarks/reports/range_ctor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A41B6-BE52-134F-AFC0-1CD520E0BF81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35311C-AF0A-0A46-80A6-DB6550C6DD4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="20440" xr2:uid="{10365174-418E-7443-88BF-7C658D016E4B}"/>
+    <workbookView xWindow="-7840" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{10365174-418E-7443-88BF-7C658D016E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,26 +134,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -162,8 +142,1943 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SKIPLIST</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$3:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.8399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9798879999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.233779999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.068435000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.753999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.456199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.247545000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.335599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.202667000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.74485700000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.72628599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115.953833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124.7962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.16320000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.45620000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171.53125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.58175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>194.81233300000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>205.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.23866699999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226.43966699999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>238.07033300000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>280.938333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>265.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270.17733299999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>277.825333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>323.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>302.745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.80650000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>331.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>354.26799999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>352.78949999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>354.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>374.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>397.40449999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>384.5025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>397.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>545.8845</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>452.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>542.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>454.67899999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450.12349999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>525.39599999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>510.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>522.35900000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>529.21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>548.86199999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.20899999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>552.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.94399999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.29899999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>604.31899999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>679.54</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>678.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>657.57899999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>698.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>662.99199999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>689.06500000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>715.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>685.85900000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>705.29100000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>734.62099999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>761.84299999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>725.49599999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>738.36800000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>771.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>776.52599999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>790.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>782.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>896.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>878.03499999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>842.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>827.226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>859.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>889.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>859.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>907.13099999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>875.74</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>892.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1396.1769999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>942.55899999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>914.60699999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>950.48299999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>902.95899999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>945.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1051.693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>996.63800000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1047.989</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1034.9860000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1029.6179999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1056.1320000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1103.43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1251.817</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1252.8789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-67D9-DE43-AB1D-4D2E3B764557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>STD MAP</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$O$3:$O$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$U$3:$U$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.9499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.662254000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.310071000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.823550000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.416713999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.251167000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.292874999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.425429000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.138667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.17779999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150.87079999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167.0805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>181.42699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>195.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>207.51066699999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>254.35766699999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>235.95400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>262.34300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260.30066699999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>282.38749999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>291.05599999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>314.666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>333.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>324.9615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>369.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>357.52350000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370.14850000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410.63549999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>390.76549999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>422.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420.88549999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>437.50400000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>447.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>516.875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>511.94099999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>510.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>503.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>547.33100000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>551.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>540.96900000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>560.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>577.02700000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>595.73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>618.68899999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>615.38199999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>628.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>654.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>664.02700000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>666.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>700.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>717.79100000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>720.83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>738.10900000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>756.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>754.41099999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>764.13699999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>785.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>823.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>821.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>903.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>836.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>848.37699999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>871.01199999999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>934.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>913.05899999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>902.755</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>925.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>971.21299999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>947.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>948.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>979.65099999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>983.09500000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1071.1659999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1027.27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1040.0719999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1075.7280000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1060.0429999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1071.9549999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1096.126</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1109.6030000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1108.136</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1168.393</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1144.0809999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1180.079</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1173.115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1185.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1203.54</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1233.0050000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1272.4549999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1296.855</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1320.3309999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1264.3810000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1299.807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1301.82</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1338.798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1417.271</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1738.8989999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1362.4449999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1344.173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-67D9-DE43-AB1D-4D2E3B764557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SKIPLIST</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$3:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.8399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9798879999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.233779999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.068435000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.753999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.456199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.247545000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.335599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.202667000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.74485700000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.72628599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115.953833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124.7962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.16320000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.45620000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.92250000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171.53125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.58175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>194.81233300000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>205.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.23866699999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226.43966699999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>238.07033300000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>280.938333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>265.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270.17733299999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>277.825333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>323.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>302.745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.80650000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>331.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>354.26799999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>352.78949999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>354.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>374.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>397.40449999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>384.5025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>397.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>545.8845</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>452.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>542.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>454.67899999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450.12349999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>525.39599999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>510.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>522.35900000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>529.21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>548.86199999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.20899999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>552.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.94399999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.29899999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>604.31899999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>679.54</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>678.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>657.57899999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>698.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>662.99199999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>689.06500000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>715.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>685.85900000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>705.29100000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>734.62099999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>761.84299999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>725.49599999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>738.36800000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>771.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>776.52599999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>790.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>782.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>896.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>878.03499999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>842.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>827.226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>859.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>889.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>859.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>907.13099999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>875.74</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>892.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1396.1769999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>942.55899999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>914.60699999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>950.48299999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>902.95899999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>945.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1051.693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>996.63800000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1047.989</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1034.9860000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1029.6179999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1056.1320000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1103.43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1251.817</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1252.8789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-67D9-DE43-AB1D-4D2E3B764557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>STD MAP</c:v>
           </c:tx>
@@ -498,7 +2413,7 @@
                   <c:v>990001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1000000</c:v>
+                  <c:v>1000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,307 +2425,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.5234498016304721E-10</c:v>
+                  <c:v>6.9499999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3443287128712875E-2</c:v>
+                  <c:v>10.662254000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25605067307692309</c:v>
+                  <c:v>23.310071000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61950963636363632</c:v>
+                  <c:v>34.823550000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1319839999999999</c:v>
+                  <c:v>49.416713999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7413524999999999</c:v>
+                  <c:v>63.251167000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6432734375</c:v>
+                  <c:v>77.292874999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5519132857142859</c:v>
+                  <c:v>85.425429000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7179374999999997</c:v>
+                  <c:v>105.545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8321735454545456</c:v>
+                  <c:v>122.138667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1072799999999994</c:v>
+                  <c:v>121.696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6876420000000003</c:v>
+                  <c:v>135.17779999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.975140625</c:v>
+                  <c:v>150.87079999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.518489857142857</c:v>
+                  <c:v>167.0805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.630204142857142</c:v>
+                  <c:v>181.42699999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.838061285714286</c:v>
+                  <c:v>195.95099999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.532472166666665</c:v>
+                  <c:v>207.51066699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.66292</c:v>
+                  <c:v>254.35766699999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.801080000000002</c:v>
+                  <c:v>235.95400000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.255625000000002</c:v>
+                  <c:v>262.34300000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.806919999999998</c:v>
+                  <c:v>260.30066699999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.279625000000003</c:v>
+                  <c:v>282.38749999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.247812500000002</c:v>
+                  <c:v>291.05599999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.522812500000001</c:v>
+                  <c:v>314.666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.2325625</c:v>
+                  <c:v>333.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>46.7674375</c:v>
+                  <c:v>324.9615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.225999999999999</c:v>
+                  <c:v>369.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.106888999999995</c:v>
+                  <c:v>357.52350000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.745999999999995</c:v>
+                  <c:v>370.14850000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.590666666666678</c:v>
+                  <c:v>410.63549999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77.956666666666678</c:v>
+                  <c:v>390.76549999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>77.772888999999992</c:v>
+                  <c:v>422.35399999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84.262111000000004</c:v>
+                  <c:v>420.88549999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>92.534999999999997</c:v>
+                  <c:v>437.50400000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>91.282222333333323</c:v>
+                  <c:v>447.28899999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.648666666666671</c:v>
+                  <c:v>516.875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>139.86375000000001</c:v>
+                  <c:v>511.94099999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>149.83725000000001</c:v>
+                  <c:v>510.72800000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>158.73224999999999</c:v>
+                  <c:v>503.19499999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>153.88475</c:v>
+                  <c:v>547.33100000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>159.85325</c:v>
+                  <c:v>551.73599999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>160.18700000000001</c:v>
+                  <c:v>540.96900000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>175.0265</c:v>
+                  <c:v>560.40899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>184.11375000000001</c:v>
+                  <c:v>577.02700000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>186.73050000000001</c:v>
+                  <c:v>595.73</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>176.62799999999999</c:v>
+                  <c:v>618.68899999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>176.24424999999999</c:v>
+                  <c:v>615.38199999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>179.91149999999999</c:v>
+                  <c:v>628.97699999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>188.92525000000001</c:v>
+                  <c:v>654.86500000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>196.74375000000001</c:v>
+                  <c:v>664.02700000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>192.97174999999999</c:v>
+                  <c:v>666.90300000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>206.52375000000001</c:v>
+                  <c:v>700.86500000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>199.31025</c:v>
+                  <c:v>717.79100000000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>203.005</c:v>
+                  <c:v>720.83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>207.02825000000001</c:v>
+                  <c:v>738.10900000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>229.59200000000001</c:v>
+                  <c:v>756.91899999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>221.19874999999999</c:v>
+                  <c:v>754.41099999999994</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>542.452</c:v>
+                  <c:v>764.13699999999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>225.95124999999999</c:v>
+                  <c:v>785.95600000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>229.71174999999999</c:v>
+                  <c:v>823.14200000000005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>237.22550000000001</c:v>
+                  <c:v>821.44799999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>526.76400000000001</c:v>
+                  <c:v>903.78899999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>239.91075000000001</c:v>
+                  <c:v>836.83100000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>246.55549999999999</c:v>
+                  <c:v>848.37699999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>508.73399999999998</c:v>
+                  <c:v>871.01199999999994</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>545.46</c:v>
+                  <c:v>934.33699999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>535.44299999999998</c:v>
+                  <c:v>913.05899999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>527.53800000000001</c:v>
+                  <c:v>902.755</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>634.15</c:v>
+                  <c:v>925.13900000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>644.34699999999998</c:v>
+                  <c:v>971.21299999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>635.87400000000002</c:v>
+                  <c:v>947.29399999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>648.12099999999998</c:v>
+                  <c:v>948.31299999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>689.97199999999998</c:v>
+                  <c:v>979.65099999999995</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>587.51900000000001</c:v>
+                  <c:v>983.09500000000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>584.61900000000003</c:v>
+                  <c:v>1071.1659999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>783.45299999999997</c:v>
+                  <c:v>1027.27</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>778.50599999999997</c:v>
+                  <c:v>1040.0719999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>713.63</c:v>
+                  <c:v>1075.7280000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>730.18499999999995</c:v>
+                  <c:v>1060.0429999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>790.01199999999994</c:v>
+                  <c:v>1071.9549999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>782.44100000000003</c:v>
+                  <c:v>1096.126</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>781.798</c:v>
+                  <c:v>1109.6030000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>654.19500000000005</c:v>
+                  <c:v>1108.136</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>685.524</c:v>
+                  <c:v>1168.393</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>717.73</c:v>
+                  <c:v>1144.0809999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>731.32500000000005</c:v>
+                  <c:v>1180.079</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>736.42600000000004</c:v>
+                  <c:v>1173.115</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>720.85500000000002</c:v>
+                  <c:v>1185.9459999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>712.84400000000005</c:v>
+                  <c:v>1203.54</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>698.33600000000001</c:v>
+                  <c:v>1233.0050000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>706.40800000000002</c:v>
+                  <c:v>1272.4549999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>726.03399999999999</c:v>
+                  <c:v>1296.855</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>750.62099999999998</c:v>
+                  <c:v>1320.3309999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>752.06</c:v>
+                  <c:v>1264.3810000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>769.322</c:v>
+                  <c:v>1299.807</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>759.05700000000002</c:v>
+                  <c:v>1301.82</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>786.995</c:v>
+                  <c:v>1338.798</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>762.51199999999994</c:v>
+                  <c:v>1417.271</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>771.38199999999995</c:v>
+                  <c:v>1738.8989999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>816.52499999999998</c:v>
+                  <c:v>1362.4449999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>806.274</c:v>
+                  <c:v>1344.173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,673 +2733,11 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6DEE-B644-A1CB-CFA885D489CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SKIPLIST</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$C$3:$C$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>220001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>230001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>240001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>270001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>280001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>290001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>300001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>310001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>320001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>330001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>340001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>350001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>360001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>370001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>380001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>390001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>400001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>410001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>420001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>430001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>440001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>450001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>460001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>470001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>480001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>490001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>500001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>510001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>520001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>530001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>540001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>550001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>560001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>570001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>580001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>590001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>600001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>610001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>620001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>630001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>640001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>650001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>660001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>670001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>680001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>690001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>700001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>710001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>720001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>730001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>740001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>750001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>760001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>770001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>780001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>790001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>800001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>810001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>820001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>830001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>840001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>850001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>860001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>870001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>880001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>890001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>900001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>910001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>920001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>930001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>940001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>950001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>960001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>970001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>980001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>990001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$I$3:$I$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>3.7656992532247114E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2076094339622641E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28237067346938771</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55001681081081077</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1443263750000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5876643809523809</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.656793</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9486509230769231</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2657336923076921</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2911800000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.461489857142857</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.56508</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.324671875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.421755142857144</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.8374445</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.465888833333334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.45857142857143</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.473416666666669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.877527833333332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.665638833333329</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39.031937499999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27.31324</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26.887400000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.816040000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.4724</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31.23584</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48.353562500000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>68.366111000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67.727777666666682</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>65.444999999999993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75.927333333333323</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64.24766666666666</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51.794625000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>66.030666666666662</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>51.639625000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64.523222333333337</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>70.532555666666667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>74.109777666666673</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>79.524666666666675</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>83.085555666666664</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>77.797333333333327</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>83.078999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>80.066000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>88.672888999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>85.237555666666665</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>94.083555666666669</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>92.805333333333323</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>96.575444333333337</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>152.59800000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>150.05449999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>149.94749999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>155.84174999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>181.99850000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>167.36474999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>164.363</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>148.83324999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>158.66675000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>157.98750000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>166.67</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>166.14375000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>171.65725</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>172.328</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>173.65799999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>180.85024999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>187.56375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>182.89625000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>181.4495</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>191.4425</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>200.68950000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>197.87524999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>191.78649999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>194.80224999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>204.643</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>207.64949999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>207.01175000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>212.40975</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>219.26599999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>240.26050000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>233.74975000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>231.36199999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>228.21899999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>233.63325</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>236.79349999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>228.07075</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>250.31174999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>236.39775</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>250.74850000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>258.60449999999997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>575.11500000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>537.69500000000005</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>517.60299999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>538.173</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>543.11300000000006</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>534.23800000000006</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>558.77300000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>589.64599999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>553.49300000000005</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>544.08600000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>552.976</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>609.41999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DEE-B644-A1CB-CFA885D489CA}"/>
+              <c16:uniqueId val="{00000006-67D9-DE43-AB1D-4D2E3B764557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1510,7 +2763,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1523,7 +2776,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>N Elements</a:t>
                 </a:r>
               </a:p>
@@ -1537,26 +2790,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1580,7 +2813,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1627,7 +2863,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1640,7 +2876,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>Miliseconds</a:t>
                 </a:r>
               </a:p>
@@ -1654,26 +2890,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1697,7 +2913,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1716,13 +2932,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1739,7 +2948,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1755,32 +2964,11 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1879,677 +3067,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>STD MAP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="bg1"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="bg1"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$AM$3:$AM$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>220001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>230001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>240001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>270001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>280001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>290001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>300001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>310001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>320001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>330001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>340001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>350001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>360001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>370001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>380001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>390001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>400001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>410001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>420001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>430001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>440001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>450001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>460001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>470001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>480001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>490001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>500001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>510001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>520001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>530001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>540001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>550001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>560001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>570001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>580001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>590001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>600001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>610001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>620001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>630001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>640001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>650001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>660001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>670001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>680001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>690001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>700001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>710001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>720001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>730001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>740001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>750001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>760001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>770001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>780001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>790001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>800001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>810001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>820001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>830001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>840001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>850001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>860001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>870001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>880001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>890001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>900001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>910001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>920001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>930001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>940001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>950001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>960001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>970001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>980001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>990001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$AS$3:$AS$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>2.6393450065832288E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96290259259259259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6777569166666675</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.370046875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.517583333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.439437499999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.740124999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.703222333333329</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.593555666666674</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159.84350000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.62825000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>208.26325</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>252.89150000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>527.20299999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>586.50400000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>732.55899999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>838.46100000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>846.68700000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>759.70500000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>836.12900000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>849.34799999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>957.827</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>905.95399999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>979.976</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>994.64099999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1051.0039999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1192.441</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1275.009</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1283.8699999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1277.1120000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1343.0930000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1579.722</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1492.251</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1643.83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1594.674</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1656.6469999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1543.1769999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1595.0450000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1702.1849999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1730.068</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1847.4359999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1867.934</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1890.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2074.904</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2021.077</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2206.3200000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2124.8310000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2199.297</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2191.5279999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2428.1509999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2461.3159999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2426.2199999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2465.819</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2636.55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2596.1410000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2783.1689999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2628.9169999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2990.1840000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2701.11</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2889.3440000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2877.5880000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2915.8290000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3106.1950000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2929.5439999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3173.7629999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3388.2040000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3474.2860000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3528.5819999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3878.01</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3962.08</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4153.5640000000003</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4069.9780000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3336.5859999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3462.348</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3573.9679999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3712.66</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3633.3220000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3572.1990000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3844.3440000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3765.058</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4044.674</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4281.9229999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4441.8500000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4137.3729999999996</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4080.8510000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4415.643</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4527.7470000000003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4493.2730000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4550.8490000000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4929.4449999999997</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5190.4440000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5170.74</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4923.8590000000004</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5276.5640000000003</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4677.9189999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4746.26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4690.9750000000004</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4735.8519999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4753.03</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5171.4530000000004</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4943.2060000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6DEE-B644-A1CB-CFA885D489CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>SKIPLIST</c:v>
           </c:tx>
@@ -2884,319 +3403,319 @@
                   <c:v>990001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1000000</c:v>
+                  <c:v>1000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AG$3:$AG$103</c:f>
+              <c:f>[1]Sheet1!$AH$3:$AH$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.9293643502617192E-10</c:v>
+                  <c:v>6.3000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5597052380952383</c:v>
+                  <c:v>48.194533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1451728888888884</c:v>
+                  <c:v>127.11085700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.108277833333332</c:v>
+                  <c:v>194.14574999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.820250000000001</c:v>
+                  <c:v>263.67399999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.10288899999999</c:v>
+                  <c:v>363.01049999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.60724999999999</c:v>
+                  <c:v>444.334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180.99225000000001</c:v>
+                  <c:v>508.92899999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>198.10499999999999</c:v>
+                  <c:v>567.60299999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>563.65</c:v>
+                  <c:v>712.73900000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>536.40300000000002</c:v>
+                  <c:v>771.16200000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>524.10400000000004</c:v>
+                  <c:v>834.02700000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>620.75800000000004</c:v>
+                  <c:v>959.577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>695.22900000000004</c:v>
+                  <c:v>1031.6279999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>725.04600000000005</c:v>
+                  <c:v>1113.0329999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>785.33199999999999</c:v>
+                  <c:v>1234.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>846.29700000000003</c:v>
+                  <c:v>1237.181</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>964.96400000000006</c:v>
+                  <c:v>1480.0250000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1145.4960000000001</c:v>
+                  <c:v>1498.067</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1078.673</c:v>
+                  <c:v>1563.1579999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1158.7729999999999</c:v>
+                  <c:v>1689.626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1236.7729999999999</c:v>
+                  <c:v>1879.675</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1276.8889999999999</c:v>
+                  <c:v>1909.682</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1554.03</c:v>
+                  <c:v>1974.4259999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1528.03</c:v>
+                  <c:v>2033.2570000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1639.4780000000001</c:v>
+                  <c:v>2229.3589999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1577.4860000000001</c:v>
+                  <c:v>2078.4499999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1671.1379999999999</c:v>
+                  <c:v>2453.9650000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1604.009</c:v>
+                  <c:v>2524.0160000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1641.2080000000001</c:v>
+                  <c:v>2583.61</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1864.375</c:v>
+                  <c:v>2721.7930000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1844.1079999999999</c:v>
+                  <c:v>2800.4340000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1946.508</c:v>
+                  <c:v>2766.0740000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2019.6679999999999</c:v>
+                  <c:v>2995.9540000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2018.0930000000001</c:v>
+                  <c:v>3040.9960000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2280.1480000000001</c:v>
+                  <c:v>3105.8939999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2331.2280000000001</c:v>
+                  <c:v>3242.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2453.683</c:v>
+                  <c:v>3432.3629999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2354.2289999999998</c:v>
+                  <c:v>3345.6849999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2461.25</c:v>
+                  <c:v>3539.7629999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2481.143</c:v>
+                  <c:v>3891.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2770.623</c:v>
+                  <c:v>3905.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2816.3420000000001</c:v>
+                  <c:v>4051.14</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2915.4580000000001</c:v>
+                  <c:v>4030.1370000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3004.5079999999998</c:v>
+                  <c:v>4107.3140000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2903.71</c:v>
+                  <c:v>4303.259</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3251.8629999999998</c:v>
+                  <c:v>4376.8500000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3025.2240000000002</c:v>
+                  <c:v>4502.0079999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3274.3209999999999</c:v>
+                  <c:v>4428.1120000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3141.9589999999998</c:v>
+                  <c:v>4698.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3510.0830000000001</c:v>
+                  <c:v>4730.4030000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3464.9549999999999</c:v>
+                  <c:v>4901.7889999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3352.5279999999998</c:v>
+                  <c:v>5008.4059999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3675.7240000000002</c:v>
+                  <c:v>4742.625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3633.0410000000002</c:v>
+                  <c:v>4665.32</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3704.9830000000002</c:v>
+                  <c:v>4724.1189999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3937.3760000000002</c:v>
+                  <c:v>4676.4530000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4161.415</c:v>
+                  <c:v>4673.7420000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4585.2669999999998</c:v>
+                  <c:v>4771.3010000000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4553.5069999999996</c:v>
+                  <c:v>4765.4849999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5036.3100000000004</c:v>
+                  <c:v>4906.5290000000005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5279.7190000000001</c:v>
+                  <c:v>4975.2060000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4167.6949999999997</c:v>
+                  <c:v>5007.8069999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4525.5259999999998</c:v>
+                  <c:v>5248.2070000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4658.0219999999999</c:v>
+                  <c:v>5429.732</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4435.942</c:v>
+                  <c:v>5338.1080000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4173.0249999999996</c:v>
+                  <c:v>5503.2820000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4610.9139999999998</c:v>
+                  <c:v>5478.7370000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4505.6120000000001</c:v>
+                  <c:v>5584.2049999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4916.2749999999996</c:v>
+                  <c:v>5832.5569999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5895.9880000000003</c:v>
+                  <c:v>6056.0129999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5068.9560000000001</c:v>
+                  <c:v>6058.7870000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4974.951</c:v>
+                  <c:v>6076.7240000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5535.1530000000002</c:v>
+                  <c:v>6310.3109999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5543.6769999999997</c:v>
+                  <c:v>6116.9939999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5521.5079999999998</c:v>
+                  <c:v>6483.8860000000004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5659.8469999999998</c:v>
+                  <c:v>6506.009</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6063.74</c:v>
+                  <c:v>7154.79</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6453.2389999999996</c:v>
+                  <c:v>7860.1679999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6254.7430000000004</c:v>
+                  <c:v>7629.2510000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6503.424</c:v>
+                  <c:v>8295.2939999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5803.7380000000003</c:v>
+                  <c:v>7608.8239999999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5789.2860000000001</c:v>
+                  <c:v>8488.3430000000008</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5857.95</c:v>
+                  <c:v>8298.616</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5761.6149999999998</c:v>
+                  <c:v>7791.7389999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6308.63</c:v>
+                  <c:v>8262.6839999999993</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6214.7659999999996</c:v>
+                  <c:v>7870.83</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6235.0829999999996</c:v>
+                  <c:v>8170.54</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6418.6760000000004</c:v>
+                  <c:v>8625.5300000000007</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6063.4979999999996</c:v>
+                  <c:v>8112.8220000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6228.0209999999997</c:v>
+                  <c:v>8336.7029999999995</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6377.4260000000004</c:v>
+                  <c:v>8128.4780000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6663.0889999999999</c:v>
+                  <c:v>8334.6669999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6198.4210000000003</c:v>
+                  <c:v>8535.8670000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6747.9449999999997</c:v>
+                  <c:v>8938.4150000000009</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7057.884</c:v>
+                  <c:v>7857.7420000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7432.9070000000002</c:v>
+                  <c:v>8136.0919999999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7502.6949999999997</c:v>
+                  <c:v>8068.951</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7612.3280000000004</c:v>
+                  <c:v>8102.1760000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7453.4769999999999</c:v>
+                  <c:v>8186.3519999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7250.6469999999999</c:v>
+                  <c:v>8505.2250000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,7 +3723,668 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6DEE-B644-A1CB-CFA885D489CA}"/>
+              <c16:uniqueId val="{00000001-BB78-1640-8048-9ABAE381E382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>STD MAP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AN$3:$AN$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AT$3:$AT$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.96E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.767824000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.238889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.37100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.92750000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238.596667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283.13150000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>332.721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>361.73649999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404.90699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>479.1995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>517.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>548.755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>680.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>889.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>945.77300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>937.87199999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1054.0350000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1059.2239999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1214.2650000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1256.962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1212.4970000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1343.9570000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1419.2270000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1511.7639999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1540.7270000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1627.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1711.5840000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1744.7570000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1896.586</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1860.711</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1956.924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1862.9159999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2117.4409999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2212.4609999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2191.14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2250.8220000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2510.3710000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2258.9380000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2518.5990000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2501.6210000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2569.462</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2688.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2779.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2637.4369999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2920.8519999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3036.4119999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3135.3240000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3158.8519999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3171.1869999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3264.6149999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3359.145</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3454.3719999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3411.643</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3526.8180000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3623.4540000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3557.4940000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3655.777</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3861.7269999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3910.181</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3482.127</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3767.1060000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3726.55</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3615.9749999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3647.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3630.6439999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3671.7240000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3726.6019999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3778.6819999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3860.2860000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3889.4989999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3920.2049999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4035.0149999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4117.4979999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4203.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4241.085</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4374.1670000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4524.4859999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4572.777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4576.777</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4651.8019999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4657.991</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4745.2939999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4831.0870000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4893.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4905.5940000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5539.4849999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6335.424</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5585.2629999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6346.335</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5594.3810000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6040.558</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6203.76</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6285.1260000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6539.82</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5718.607</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6255.8239999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6416.7749999999996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6599.951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB78-1640-8048-9ABAE381E382}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3234,7 +4414,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3247,7 +4427,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>N Elements</a:t>
                 </a:r>
               </a:p>
@@ -3266,7 +4446,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3304,7 +4484,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3351,7 +4531,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3364,7 +4544,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>Miliseconds</a:t>
                 </a:r>
               </a:p>
@@ -3383,7 +4563,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3421,7 +4601,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3463,7 +4643,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3524,46 +4704,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4119,536 +5259,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>222956</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79022</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>73543</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>189752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>225779</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>174978</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>152791</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4659,7 +5283,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4676,15 +5302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>211668</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>70554</xdr:rowOff>
+      <xdr:colOff>824256</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>214489</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>172154</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>65304</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>45154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4724,2929 +5350,3232 @@
           <cell r="C3">
             <v>1</v>
           </cell>
+          <cell r="E3">
+            <v>584</v>
+          </cell>
           <cell r="I3">
-            <v>3.7656992532247114E-10</v>
+            <v>5.8399999999999999E-4</v>
           </cell>
           <cell r="O3">
             <v>1</v>
           </cell>
           <cell r="T3">
-            <v>2.5234498016304723E-7</v>
+            <v>0.69499999999999995</v>
           </cell>
           <cell r="U3">
-            <v>2.5234498016304721E-10</v>
+            <v>6.9499999999999998E-4</v>
           </cell>
           <cell r="AA3">
             <v>1</v>
           </cell>
-          <cell r="AG3">
-            <v>1.9293643502617192E-10</v>
-          </cell>
-          <cell r="AM3">
+          <cell r="AH3">
+            <v>6.3000000000000003E-4</v>
+          </cell>
+          <cell r="AN3">
             <v>1</v>
           </cell>
-          <cell r="AS3">
-            <v>2.6393450065832288E-10</v>
+          <cell r="AT3">
+            <v>6.96E-4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
             <v>10001</v>
           </cell>
+          <cell r="E4">
+            <v>7979888</v>
+          </cell>
           <cell r="I4">
-            <v>6.2076094339622641E-2</v>
+            <v>7.9798879999999999</v>
           </cell>
           <cell r="O4">
             <v>10001</v>
           </cell>
           <cell r="T4">
-            <v>63.443287128712875</v>
+            <v>10662.254000000001</v>
           </cell>
           <cell r="U4">
-            <v>6.3443287128712875E-2</v>
+            <v>10.662254000000001</v>
           </cell>
           <cell r="AA4">
             <v>10001</v>
           </cell>
-          <cell r="AG4">
-            <v>1.5597052380952383</v>
-          </cell>
-          <cell r="AM4">
+          <cell r="AH4">
+            <v>48.194533</v>
+          </cell>
+          <cell r="AN4">
             <v>10001</v>
           </cell>
-          <cell r="AS4">
-            <v>0.96290259259259259</v>
+          <cell r="AT4">
+            <v>29.767824000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
             <v>20001</v>
           </cell>
+          <cell r="E5">
+            <v>17233780</v>
+          </cell>
           <cell r="I5">
-            <v>0.28237067346938771</v>
+            <v>17.233779999999999</v>
           </cell>
           <cell r="O5">
             <v>20001</v>
           </cell>
           <cell r="T5">
-            <v>256.05067307692309</v>
+            <v>23310.071</v>
           </cell>
           <cell r="U5">
-            <v>0.25605067307692309</v>
+            <v>23.310071000000001</v>
           </cell>
           <cell r="AA5">
             <v>20001</v>
           </cell>
-          <cell r="AG5">
-            <v>9.1451728888888884</v>
-          </cell>
-          <cell r="AM5">
+          <cell r="AH5">
+            <v>127.11085700000001</v>
+          </cell>
+          <cell r="AN5">
             <v>20001</v>
           </cell>
-          <cell r="AS5">
-            <v>4.6777569166666675</v>
+          <cell r="AT5">
+            <v>65.238889</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
             <v>30001</v>
           </cell>
+          <cell r="E6">
+            <v>28068435</v>
+          </cell>
           <cell r="I6">
-            <v>0.55001681081081077</v>
+            <v>28.068435000000001</v>
           </cell>
           <cell r="O6">
             <v>30001</v>
           </cell>
           <cell r="T6">
-            <v>619.50963636363633</v>
+            <v>34823.550000000003</v>
           </cell>
           <cell r="U6">
-            <v>0.61950963636363632</v>
+            <v>34.823550000000004</v>
           </cell>
           <cell r="AA6">
             <v>30001</v>
           </cell>
-          <cell r="AG6">
-            <v>21.108277833333332</v>
-          </cell>
-          <cell r="AM6">
+          <cell r="AH6">
+            <v>194.14574999999999</v>
+          </cell>
+          <cell r="AN6">
             <v>30001</v>
           </cell>
-          <cell r="AS6">
-            <v>11.370046875</v>
+          <cell r="AT6">
+            <v>104.52500000000001</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
             <v>40001</v>
           </cell>
+          <cell r="E7">
+            <v>37754000</v>
+          </cell>
           <cell r="I7">
-            <v>1.1443263750000001</v>
+            <v>37.753999999999998</v>
           </cell>
           <cell r="O7">
             <v>40001</v>
           </cell>
           <cell r="T7">
-            <v>1131.9839999999999</v>
+            <v>49416.714</v>
           </cell>
           <cell r="U7">
-            <v>1.1319839999999999</v>
+            <v>49.416713999999999</v>
           </cell>
           <cell r="AA7">
             <v>40001</v>
           </cell>
-          <cell r="AG7">
-            <v>53.820250000000001</v>
-          </cell>
-          <cell r="AM7">
+          <cell r="AH7">
+            <v>263.67399999999998</v>
+          </cell>
+          <cell r="AN7">
             <v>40001</v>
           </cell>
-          <cell r="AS7">
-            <v>20.517583333333331</v>
+          <cell r="AT7">
+            <v>144.37100000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
             <v>50001</v>
           </cell>
+          <cell r="E8">
+            <v>54456200</v>
+          </cell>
           <cell r="I8">
-            <v>1.5876643809523809</v>
+            <v>54.456199999999995</v>
           </cell>
           <cell r="O8">
             <v>50001</v>
           </cell>
           <cell r="T8">
-            <v>1741.3525</v>
+            <v>63251.167000000001</v>
           </cell>
           <cell r="U8">
-            <v>1.7413524999999999</v>
+            <v>63.251167000000002</v>
           </cell>
           <cell r="AA8">
             <v>50001</v>
           </cell>
-          <cell r="AG8">
-            <v>98.10288899999999</v>
-          </cell>
-          <cell r="AM8">
+          <cell r="AH8">
+            <v>363.01049999999998</v>
+          </cell>
+          <cell r="AN8">
             <v>50001</v>
           </cell>
-          <cell r="AS8">
-            <v>39.439437499999997</v>
+          <cell r="AT8">
+            <v>187.92750000000001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
             <v>60001</v>
           </cell>
+          <cell r="E9">
+            <v>67247545</v>
+          </cell>
           <cell r="I9">
-            <v>2.656793</v>
+            <v>67.247545000000002</v>
           </cell>
           <cell r="O9">
             <v>60001</v>
           </cell>
           <cell r="T9">
-            <v>2643.2734375</v>
+            <v>77292.875</v>
           </cell>
           <cell r="U9">
-            <v>2.6432734375</v>
+            <v>77.292874999999995</v>
           </cell>
           <cell r="AA9">
             <v>60001</v>
           </cell>
-          <cell r="AG9">
-            <v>150.60724999999999</v>
-          </cell>
-          <cell r="AM9">
+          <cell r="AH9">
+            <v>444.334</v>
+          </cell>
+          <cell r="AN9">
             <v>60001</v>
           </cell>
-          <cell r="AS9">
-            <v>49.740124999999999</v>
+          <cell r="AT9">
+            <v>238.596667</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
             <v>70001</v>
           </cell>
+          <cell r="E10">
+            <v>69335600</v>
+          </cell>
           <cell r="I10">
-            <v>3.9486509230769231</v>
+            <v>69.335599999999999</v>
           </cell>
           <cell r="O10">
             <v>70001</v>
           </cell>
           <cell r="T10">
-            <v>3551.9132857142858</v>
+            <v>85425.429000000004</v>
           </cell>
           <cell r="U10">
-            <v>3.5519132857142859</v>
+            <v>85.425429000000008</v>
           </cell>
           <cell r="AA10">
             <v>70001</v>
           </cell>
-          <cell r="AG10">
-            <v>180.99225000000001</v>
-          </cell>
-          <cell r="AM10">
+          <cell r="AH10">
+            <v>508.92899999999997</v>
+          </cell>
+          <cell r="AN10">
             <v>70001</v>
           </cell>
-          <cell r="AS10">
-            <v>80.703222333333329</v>
+          <cell r="AT10">
+            <v>283.13150000000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
             <v>80001</v>
           </cell>
+          <cell r="E11">
+            <v>80202667</v>
+          </cell>
           <cell r="I11">
-            <v>4.2657336923076921</v>
+            <v>80.202667000000005</v>
           </cell>
           <cell r="O11">
             <v>80001</v>
           </cell>
           <cell r="T11">
-            <v>4717.9375</v>
+            <v>105545</v>
           </cell>
           <cell r="U11">
-            <v>4.7179374999999997</v>
+            <v>105.545</v>
           </cell>
           <cell r="AA11">
             <v>80001</v>
           </cell>
-          <cell r="AG11">
-            <v>198.10499999999999</v>
-          </cell>
-          <cell r="AM11">
+          <cell r="AH11">
+            <v>567.60299999999995</v>
+          </cell>
+          <cell r="AN11">
             <v>80001</v>
           </cell>
-          <cell r="AS11">
-            <v>93.593555666666674</v>
+          <cell r="AT11">
+            <v>332.721</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
             <v>90001</v>
           </cell>
+          <cell r="E12">
+            <v>107744857</v>
+          </cell>
           <cell r="I12">
-            <v>6.2911800000000007</v>
+            <v>107.74485700000001</v>
           </cell>
           <cell r="O12">
             <v>90001</v>
           </cell>
           <cell r="T12">
-            <v>5832.173545454546</v>
+            <v>122138.667</v>
           </cell>
           <cell r="U12">
-            <v>5.8321735454545456</v>
+            <v>122.138667</v>
           </cell>
           <cell r="AA12">
             <v>90001</v>
           </cell>
-          <cell r="AG12">
-            <v>563.65</v>
-          </cell>
-          <cell r="AM12">
+          <cell r="AH12">
+            <v>712.73900000000003</v>
+          </cell>
+          <cell r="AN12">
             <v>90001</v>
           </cell>
-          <cell r="AS12">
-            <v>159.84350000000001</v>
+          <cell r="AT12">
+            <v>361.73649999999998</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
             <v>100001</v>
           </cell>
+          <cell r="E13">
+            <v>104726286</v>
+          </cell>
           <cell r="I13">
-            <v>10.461489857142857</v>
+            <v>104.72628599999999</v>
           </cell>
           <cell r="O13">
             <v>100001</v>
           </cell>
           <cell r="T13">
-            <v>7107.28</v>
+            <v>121696</v>
           </cell>
           <cell r="U13">
-            <v>7.1072799999999994</v>
+            <v>121.696</v>
           </cell>
           <cell r="AA13">
             <v>100001</v>
           </cell>
-          <cell r="AG13">
-            <v>536.40300000000002</v>
-          </cell>
-          <cell r="AM13">
+          <cell r="AH13">
+            <v>771.16200000000003</v>
+          </cell>
+          <cell r="AN13">
             <v>100001</v>
           </cell>
-          <cell r="AS13">
-            <v>183.62825000000001</v>
+          <cell r="AT13">
+            <v>404.90699999999998</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
             <v>110001</v>
           </cell>
+          <cell r="E14">
+            <v>109477000</v>
+          </cell>
           <cell r="I14">
-            <v>6.56508</v>
+            <v>109.477</v>
           </cell>
           <cell r="O14">
             <v>110001</v>
           </cell>
           <cell r="T14">
-            <v>8687.6419999999998</v>
+            <v>135177.79999999999</v>
           </cell>
           <cell r="U14">
-            <v>8.6876420000000003</v>
+            <v>135.17779999999999</v>
           </cell>
           <cell r="AA14">
             <v>110001</v>
           </cell>
-          <cell r="AG14">
-            <v>524.10400000000004</v>
-          </cell>
-          <cell r="AM14">
+          <cell r="AH14">
+            <v>834.02700000000004</v>
+          </cell>
+          <cell r="AN14">
             <v>110001</v>
           </cell>
-          <cell r="AS14">
-            <v>208.26325</v>
+          <cell r="AT14">
+            <v>479.1995</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
             <v>120001</v>
           </cell>
+          <cell r="E15">
+            <v>115953833</v>
+          </cell>
           <cell r="I15">
-            <v>10.324671875</v>
+            <v>115.953833</v>
           </cell>
           <cell r="O15">
             <v>120001</v>
           </cell>
           <cell r="T15">
-            <v>10975.140625</v>
+            <v>150870.79999999999</v>
           </cell>
           <cell r="U15">
-            <v>10.975140625</v>
+            <v>150.87079999999997</v>
           </cell>
           <cell r="AA15">
             <v>120001</v>
           </cell>
-          <cell r="AG15">
-            <v>620.75800000000004</v>
-          </cell>
-          <cell r="AM15">
+          <cell r="AH15">
+            <v>959.577</v>
+          </cell>
+          <cell r="AN15">
             <v>120001</v>
           </cell>
-          <cell r="AS15">
-            <v>252.89150000000001</v>
+          <cell r="AT15">
+            <v>517.89</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
             <v>130001</v>
           </cell>
+          <cell r="E16">
+            <v>124796200</v>
+          </cell>
           <cell r="I16">
-            <v>14.421755142857144</v>
+            <v>124.7962</v>
           </cell>
           <cell r="O16">
             <v>130001</v>
           </cell>
           <cell r="T16">
-            <v>13518.489857142857</v>
+            <v>167080.5</v>
           </cell>
           <cell r="U16">
-            <v>13.518489857142857</v>
+            <v>167.0805</v>
           </cell>
           <cell r="AA16">
             <v>130001</v>
           </cell>
-          <cell r="AG16">
-            <v>695.22900000000004</v>
-          </cell>
-          <cell r="AM16">
+          <cell r="AH16">
+            <v>1031.6279999999999</v>
+          </cell>
+          <cell r="AN16">
             <v>130001</v>
           </cell>
-          <cell r="AS16">
-            <v>527.20299999999997</v>
+          <cell r="AT16">
+            <v>548.755</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
             <v>140001</v>
           </cell>
+          <cell r="E17">
+            <v>137163200</v>
+          </cell>
           <cell r="I17">
-            <v>14.8374445</v>
+            <v>137.16320000000002</v>
           </cell>
           <cell r="O17">
             <v>140001</v>
           </cell>
           <cell r="T17">
-            <v>14630.204142857143</v>
+            <v>181427</v>
           </cell>
           <cell r="U17">
-            <v>14.630204142857142</v>
+            <v>181.42699999999999</v>
           </cell>
           <cell r="AA17">
             <v>140001</v>
           </cell>
-          <cell r="AG17">
-            <v>725.04600000000005</v>
-          </cell>
-          <cell r="AM17">
+          <cell r="AH17">
+            <v>1113.0329999999999</v>
+          </cell>
+          <cell r="AN17">
             <v>140001</v>
           </cell>
-          <cell r="AS17">
-            <v>586.50400000000002</v>
+          <cell r="AT17">
+            <v>600.31100000000004</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
             <v>150001</v>
           </cell>
+          <cell r="E18">
+            <v>147456200</v>
+          </cell>
           <cell r="I18">
-            <v>16.465888833333334</v>
+            <v>147.45620000000002</v>
           </cell>
           <cell r="O18">
             <v>150001</v>
           </cell>
           <cell r="T18">
-            <v>15838.061285714286</v>
+            <v>195951</v>
           </cell>
           <cell r="U18">
-            <v>15.838061285714286</v>
+            <v>195.95099999999999</v>
           </cell>
           <cell r="AA18">
             <v>150001</v>
           </cell>
-          <cell r="AG18">
-            <v>785.33199999999999</v>
-          </cell>
-          <cell r="AM18">
+          <cell r="AH18">
+            <v>1234.58</v>
+          </cell>
+          <cell r="AN18">
             <v>150001</v>
           </cell>
-          <cell r="AS18">
-            <v>732.55899999999997</v>
+          <cell r="AT18">
+            <v>680.16800000000001</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
             <v>160001</v>
           </cell>
+          <cell r="E19">
+            <v>162922500</v>
+          </cell>
           <cell r="I19">
-            <v>14.45857142857143</v>
+            <v>162.92250000000001</v>
           </cell>
           <cell r="O19">
             <v>160001</v>
           </cell>
           <cell r="T19">
-            <v>19532.472166666666</v>
+            <v>207510.66699999999</v>
           </cell>
           <cell r="U19">
-            <v>19.532472166666665</v>
+            <v>207.51066699999998</v>
           </cell>
           <cell r="AA19">
             <v>160001</v>
           </cell>
-          <cell r="AG19">
-            <v>846.29700000000003</v>
-          </cell>
-          <cell r="AM19">
+          <cell r="AH19">
+            <v>1237.181</v>
+          </cell>
+          <cell r="AN19">
             <v>160001</v>
           </cell>
-          <cell r="AS19">
-            <v>838.46100000000001</v>
+          <cell r="AT19">
+            <v>889.42399999999998</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
             <v>170001</v>
           </cell>
+          <cell r="E20">
+            <v>171531250</v>
+          </cell>
           <cell r="I20">
-            <v>17.473416666666669</v>
+            <v>171.53125</v>
           </cell>
           <cell r="O20">
             <v>170001</v>
           </cell>
           <cell r="T20">
-            <v>24662.92</v>
+            <v>254357.66699999999</v>
           </cell>
           <cell r="U20">
-            <v>24.66292</v>
+            <v>254.35766699999999</v>
           </cell>
           <cell r="AA20">
             <v>170001</v>
           </cell>
-          <cell r="AG20">
-            <v>964.96400000000006</v>
-          </cell>
-          <cell r="AM20">
+          <cell r="AH20">
+            <v>1480.0250000000001</v>
+          </cell>
+          <cell r="AN20">
             <v>170001</v>
           </cell>
-          <cell r="AS20">
-            <v>846.68700000000001</v>
+          <cell r="AT20">
+            <v>945.77300000000002</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
             <v>180001</v>
           </cell>
+          <cell r="E21">
+            <v>178581750</v>
+          </cell>
           <cell r="I21">
-            <v>17.877527833333332</v>
+            <v>178.58175</v>
           </cell>
           <cell r="O21">
             <v>180001</v>
           </cell>
           <cell r="T21">
-            <v>26801.08</v>
+            <v>235954</v>
           </cell>
           <cell r="U21">
-            <v>26.801080000000002</v>
+            <v>235.95400000000001</v>
           </cell>
           <cell r="AA21">
             <v>180001</v>
           </cell>
-          <cell r="AG21">
-            <v>1145.4960000000001</v>
-          </cell>
-          <cell r="AM21">
+          <cell r="AH21">
+            <v>1498.067</v>
+          </cell>
+          <cell r="AN21">
             <v>180001</v>
           </cell>
-          <cell r="AS21">
-            <v>759.70500000000004</v>
+          <cell r="AT21">
+            <v>937.87199999999996</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
             <v>190001</v>
           </cell>
+          <cell r="E22">
+            <v>209662000</v>
+          </cell>
           <cell r="I22">
-            <v>20.665638833333329</v>
+            <v>209.66200000000001</v>
           </cell>
           <cell r="O22">
             <v>190001</v>
           </cell>
           <cell r="T22">
-            <v>36255.625</v>
+            <v>262343</v>
           </cell>
           <cell r="U22">
-            <v>36.255625000000002</v>
+            <v>262.34300000000002</v>
           </cell>
           <cell r="AA22">
             <v>190001</v>
           </cell>
-          <cell r="AG22">
-            <v>1078.673</v>
-          </cell>
-          <cell r="AM22">
+          <cell r="AH22">
+            <v>1563.1579999999999</v>
+          </cell>
+          <cell r="AN22">
             <v>190001</v>
           </cell>
-          <cell r="AS22">
-            <v>836.12900000000002</v>
+          <cell r="AT22">
+            <v>1054.0350000000001</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
             <v>200001</v>
           </cell>
+          <cell r="E23">
+            <v>194812333</v>
+          </cell>
           <cell r="I23">
-            <v>39.031937499999998</v>
+            <v>194.81233300000002</v>
           </cell>
           <cell r="O23">
             <v>200001</v>
           </cell>
           <cell r="T23">
-            <v>29806.92</v>
+            <v>260300.66699999999</v>
           </cell>
           <cell r="U23">
-            <v>29.806919999999998</v>
+            <v>260.30066699999998</v>
           </cell>
           <cell r="AA23">
             <v>200001</v>
           </cell>
-          <cell r="AG23">
-            <v>1158.7729999999999</v>
-          </cell>
-          <cell r="AM23">
+          <cell r="AH23">
+            <v>1689.626</v>
+          </cell>
+          <cell r="AN23">
             <v>200001</v>
           </cell>
-          <cell r="AS23">
-            <v>849.34799999999996</v>
+          <cell r="AT23">
+            <v>1059.2239999999999</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
             <v>210001</v>
           </cell>
+          <cell r="E24">
+            <v>205879000</v>
+          </cell>
           <cell r="I24">
-            <v>27.31324</v>
+            <v>205.87899999999999</v>
           </cell>
           <cell r="O24">
             <v>210001</v>
           </cell>
           <cell r="T24">
-            <v>39279.625</v>
+            <v>282387.5</v>
           </cell>
           <cell r="U24">
-            <v>39.279625000000003</v>
+            <v>282.38749999999999</v>
           </cell>
           <cell r="AA24">
             <v>210001</v>
           </cell>
-          <cell r="AG24">
-            <v>1236.7729999999999</v>
-          </cell>
-          <cell r="AM24">
+          <cell r="AH24">
+            <v>1879.675</v>
+          </cell>
+          <cell r="AN24">
             <v>210001</v>
           </cell>
-          <cell r="AS24">
-            <v>957.827</v>
+          <cell r="AT24">
+            <v>1214.2650000000001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
             <v>220001</v>
           </cell>
+          <cell r="E25">
+            <v>230238667</v>
+          </cell>
           <cell r="I25">
-            <v>26.887400000000003</v>
+            <v>230.23866699999999</v>
           </cell>
           <cell r="O25">
             <v>220001</v>
           </cell>
           <cell r="T25">
-            <v>41247.8125</v>
+            <v>291056</v>
           </cell>
           <cell r="U25">
-            <v>41.247812500000002</v>
+            <v>291.05599999999998</v>
           </cell>
           <cell r="AA25">
             <v>220001</v>
           </cell>
-          <cell r="AG25">
-            <v>1276.8889999999999</v>
-          </cell>
-          <cell r="AM25">
+          <cell r="AH25">
+            <v>1909.682</v>
+          </cell>
+          <cell r="AN25">
             <v>220001</v>
           </cell>
-          <cell r="AS25">
-            <v>905.95399999999995</v>
+          <cell r="AT25">
+            <v>1256.962</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
             <v>230001</v>
           </cell>
+          <cell r="E26">
+            <v>226439667</v>
+          </cell>
           <cell r="I26">
-            <v>28.816040000000001</v>
+            <v>226.43966699999999</v>
           </cell>
           <cell r="O26">
             <v>230001</v>
           </cell>
           <cell r="T26">
-            <v>44522.8125</v>
+            <v>314666</v>
           </cell>
           <cell r="U26">
-            <v>44.522812500000001</v>
+            <v>314.666</v>
           </cell>
           <cell r="AA26">
             <v>230001</v>
           </cell>
-          <cell r="AG26">
-            <v>1554.03</v>
-          </cell>
-          <cell r="AM26">
+          <cell r="AH26">
+            <v>1974.4259999999999</v>
+          </cell>
+          <cell r="AN26">
             <v>230001</v>
           </cell>
-          <cell r="AS26">
-            <v>979.976</v>
+          <cell r="AT26">
+            <v>1212.4970000000001</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
             <v>240001</v>
           </cell>
+          <cell r="E27">
+            <v>238070333</v>
+          </cell>
           <cell r="I27">
-            <v>28.4724</v>
+            <v>238.07033300000001</v>
           </cell>
           <cell r="O27">
             <v>240001</v>
           </cell>
           <cell r="T27">
-            <v>45232.5625</v>
+            <v>333156</v>
           </cell>
           <cell r="U27">
-            <v>45.2325625</v>
+            <v>333.15600000000001</v>
           </cell>
           <cell r="AA27">
             <v>240001</v>
           </cell>
-          <cell r="AG27">
-            <v>1528.03</v>
-          </cell>
-          <cell r="AM27">
+          <cell r="AH27">
+            <v>2033.2570000000001</v>
+          </cell>
+          <cell r="AN27">
             <v>240001</v>
           </cell>
-          <cell r="AS27">
-            <v>994.64099999999996</v>
+          <cell r="AT27">
+            <v>1343.9570000000001</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
             <v>250001</v>
           </cell>
+          <cell r="E28">
+            <v>280938333</v>
+          </cell>
           <cell r="I28">
-            <v>31.23584</v>
+            <v>280.938333</v>
           </cell>
           <cell r="O28">
             <v>250001</v>
           </cell>
           <cell r="T28">
-            <v>46767.4375</v>
+            <v>324961.5</v>
           </cell>
           <cell r="U28">
-            <v>46.7674375</v>
+            <v>324.9615</v>
           </cell>
           <cell r="AA28">
             <v>250001</v>
           </cell>
-          <cell r="AG28">
-            <v>1639.4780000000001</v>
-          </cell>
-          <cell r="AM28">
+          <cell r="AH28">
+            <v>2229.3589999999999</v>
+          </cell>
+          <cell r="AN28">
             <v>250001</v>
           </cell>
-          <cell r="AS28">
-            <v>1051.0039999999999</v>
+          <cell r="AT28">
+            <v>1419.2270000000001</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
             <v>260001</v>
           </cell>
+          <cell r="E29">
+            <v>265990000</v>
+          </cell>
           <cell r="I29">
-            <v>48.353562500000002</v>
+            <v>265.99</v>
           </cell>
           <cell r="O29">
             <v>260001</v>
           </cell>
           <cell r="T29">
-            <v>65226</v>
+            <v>369500</v>
           </cell>
           <cell r="U29">
-            <v>65.225999999999999</v>
+            <v>369.5</v>
           </cell>
           <cell r="AA29">
             <v>260001</v>
           </cell>
-          <cell r="AG29">
-            <v>1577.4860000000001</v>
-          </cell>
-          <cell r="AM29">
+          <cell r="AH29">
+            <v>2078.4499999999998</v>
+          </cell>
+          <cell r="AN29">
             <v>260001</v>
           </cell>
-          <cell r="AS29">
-            <v>1192.441</v>
+          <cell r="AT29">
+            <v>1511.7639999999999</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
             <v>270001</v>
           </cell>
+          <cell r="E30">
+            <v>270177333</v>
+          </cell>
           <cell r="I30">
-            <v>68.366111000000004</v>
+            <v>270.17733299999998</v>
           </cell>
           <cell r="O30">
             <v>270001</v>
           </cell>
           <cell r="T30">
-            <v>70106.888999999996</v>
+            <v>357523.5</v>
           </cell>
           <cell r="U30">
-            <v>70.106888999999995</v>
+            <v>357.52350000000001</v>
           </cell>
           <cell r="AA30">
             <v>270001</v>
           </cell>
-          <cell r="AG30">
-            <v>1671.1379999999999</v>
-          </cell>
-          <cell r="AM30">
+          <cell r="AH30">
+            <v>2453.9650000000001</v>
+          </cell>
+          <cell r="AN30">
             <v>270001</v>
           </cell>
-          <cell r="AS30">
-            <v>1275.009</v>
+          <cell r="AT30">
+            <v>1540.7270000000001</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
             <v>280001</v>
           </cell>
+          <cell r="E31">
+            <v>277825333</v>
+          </cell>
           <cell r="I31">
-            <v>67.727777666666682</v>
+            <v>277.825333</v>
           </cell>
           <cell r="O31">
             <v>280001</v>
           </cell>
           <cell r="T31">
-            <v>75746</v>
+            <v>370148.5</v>
           </cell>
           <cell r="U31">
-            <v>75.745999999999995</v>
+            <v>370.14850000000001</v>
           </cell>
           <cell r="AA31">
             <v>280001</v>
           </cell>
-          <cell r="AG31">
-            <v>1604.009</v>
-          </cell>
-          <cell r="AM31">
+          <cell r="AH31">
+            <v>2524.0160000000001</v>
+          </cell>
+          <cell r="AN31">
             <v>280001</v>
           </cell>
-          <cell r="AS31">
-            <v>1283.8699999999999</v>
+          <cell r="AT31">
+            <v>1627.5419999999999</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
             <v>290001</v>
           </cell>
+          <cell r="E32">
+            <v>323543000</v>
+          </cell>
           <cell r="I32">
-            <v>65.444999999999993</v>
+            <v>323.54300000000001</v>
           </cell>
           <cell r="O32">
             <v>290001</v>
           </cell>
           <cell r="T32">
-            <v>74590.666666666672</v>
+            <v>410635.5</v>
           </cell>
           <cell r="U32">
-            <v>74.590666666666678</v>
+            <v>410.63549999999998</v>
           </cell>
           <cell r="AA32">
             <v>290001</v>
           </cell>
-          <cell r="AG32">
-            <v>1641.2080000000001</v>
-          </cell>
-          <cell r="AM32">
+          <cell r="AH32">
+            <v>2583.61</v>
+          </cell>
+          <cell r="AN32">
             <v>290001</v>
           </cell>
-          <cell r="AS32">
-            <v>1277.1120000000001</v>
+          <cell r="AT32">
+            <v>1711.5840000000001</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
             <v>300001</v>
           </cell>
+          <cell r="E33">
+            <v>302745000</v>
+          </cell>
           <cell r="I33">
-            <v>75.927333333333323</v>
+            <v>302.745</v>
           </cell>
           <cell r="O33">
             <v>300001</v>
           </cell>
           <cell r="T33">
-            <v>77956.666666666672</v>
+            <v>390765.5</v>
           </cell>
           <cell r="U33">
-            <v>77.956666666666678</v>
+            <v>390.76549999999997</v>
           </cell>
           <cell r="AA33">
             <v>300001</v>
           </cell>
-          <cell r="AG33">
-            <v>1864.375</v>
-          </cell>
-          <cell r="AM33">
+          <cell r="AH33">
+            <v>2721.7930000000001</v>
+          </cell>
+          <cell r="AN33">
             <v>300001</v>
           </cell>
-          <cell r="AS33">
-            <v>1343.0930000000001</v>
+          <cell r="AT33">
+            <v>1744.7570000000001</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
             <v>310001</v>
           </cell>
+          <cell r="E34">
+            <v>333806500</v>
+          </cell>
           <cell r="I34">
-            <v>64.24766666666666</v>
+            <v>333.80650000000003</v>
           </cell>
           <cell r="O34">
             <v>310001</v>
           </cell>
           <cell r="T34">
-            <v>77772.888999999996</v>
+            <v>422354</v>
           </cell>
           <cell r="U34">
-            <v>77.772888999999992</v>
+            <v>422.35399999999998</v>
           </cell>
           <cell r="AA34">
             <v>310001</v>
           </cell>
-          <cell r="AG34">
-            <v>1844.1079999999999</v>
-          </cell>
-          <cell r="AM34">
+          <cell r="AH34">
+            <v>2800.4340000000002</v>
+          </cell>
+          <cell r="AN34">
             <v>310001</v>
           </cell>
-          <cell r="AS34">
-            <v>1579.722</v>
+          <cell r="AT34">
+            <v>1896.586</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
             <v>320001</v>
           </cell>
+          <cell r="E35">
+            <v>315937500</v>
+          </cell>
           <cell r="I35">
-            <v>51.794625000000003</v>
+            <v>315.9375</v>
           </cell>
           <cell r="O35">
             <v>320001</v>
           </cell>
           <cell r="T35">
-            <v>84262.111000000004</v>
+            <v>420885.5</v>
           </cell>
           <cell r="U35">
-            <v>84.262111000000004</v>
+            <v>420.88549999999998</v>
           </cell>
           <cell r="AA35">
             <v>320001</v>
           </cell>
-          <cell r="AG35">
-            <v>1946.508</v>
-          </cell>
-          <cell r="AM35">
+          <cell r="AH35">
+            <v>2766.0740000000001</v>
+          </cell>
+          <cell r="AN35">
             <v>320001</v>
           </cell>
-          <cell r="AS35">
-            <v>1492.251</v>
+          <cell r="AT35">
+            <v>1860.711</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
             <v>330001</v>
           </cell>
+          <cell r="E36">
+            <v>331183000</v>
+          </cell>
           <cell r="I36">
-            <v>66.030666666666662</v>
+            <v>331.18299999999999</v>
           </cell>
           <cell r="O36">
             <v>330001</v>
           </cell>
           <cell r="T36">
-            <v>92535</v>
+            <v>437504</v>
           </cell>
           <cell r="U36">
-            <v>92.534999999999997</v>
+            <v>437.50400000000002</v>
           </cell>
           <cell r="AA36">
             <v>330001</v>
           </cell>
-          <cell r="AG36">
-            <v>2019.6679999999999</v>
-          </cell>
-          <cell r="AM36">
+          <cell r="AH36">
+            <v>2995.9540000000002</v>
+          </cell>
+          <cell r="AN36">
             <v>330001</v>
           </cell>
-          <cell r="AS36">
-            <v>1643.83</v>
+          <cell r="AT36">
+            <v>1956.924</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
             <v>340001</v>
           </cell>
+          <cell r="E37">
+            <v>354268000</v>
+          </cell>
           <cell r="I37">
-            <v>51.639625000000002</v>
+            <v>354.26799999999997</v>
           </cell>
           <cell r="O37">
             <v>340001</v>
           </cell>
           <cell r="T37">
-            <v>91282.222333333324</v>
+            <v>447289</v>
           </cell>
           <cell r="U37">
-            <v>91.282222333333323</v>
+            <v>447.28899999999999</v>
           </cell>
           <cell r="AA37">
             <v>340001</v>
           </cell>
-          <cell r="AG37">
-            <v>2018.0930000000001</v>
-          </cell>
-          <cell r="AM37">
+          <cell r="AH37">
+            <v>3040.9960000000001</v>
+          </cell>
+          <cell r="AN37">
             <v>340001</v>
           </cell>
-          <cell r="AS37">
-            <v>1594.674</v>
+          <cell r="AT37">
+            <v>1862.9159999999999</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
             <v>350001</v>
           </cell>
+          <cell r="E38">
+            <v>352789500</v>
+          </cell>
           <cell r="I38">
-            <v>64.523222333333337</v>
+            <v>352.78949999999998</v>
           </cell>
           <cell r="O38">
             <v>350001</v>
           </cell>
           <cell r="T38">
-            <v>89648.666666666672</v>
+            <v>516875</v>
           </cell>
           <cell r="U38">
-            <v>89.648666666666671</v>
+            <v>516.875</v>
           </cell>
           <cell r="AA38">
             <v>350001</v>
           </cell>
-          <cell r="AG38">
-            <v>2280.1480000000001</v>
-          </cell>
-          <cell r="AM38">
+          <cell r="AH38">
+            <v>3105.8939999999998</v>
+          </cell>
+          <cell r="AN38">
             <v>350001</v>
           </cell>
-          <cell r="AS38">
-            <v>1656.6469999999999</v>
+          <cell r="AT38">
+            <v>2117.4409999999998</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
             <v>360001</v>
           </cell>
+          <cell r="E39">
+            <v>354015000</v>
+          </cell>
           <cell r="I39">
-            <v>70.532555666666667</v>
+            <v>354.01499999999999</v>
           </cell>
           <cell r="O39">
             <v>360001</v>
           </cell>
           <cell r="T39">
-            <v>139863.75</v>
+            <v>511941</v>
           </cell>
           <cell r="U39">
-            <v>139.86375000000001</v>
+            <v>511.94099999999997</v>
           </cell>
           <cell r="AA39">
             <v>360001</v>
           </cell>
-          <cell r="AG39">
-            <v>2331.2280000000001</v>
-          </cell>
-          <cell r="AM39">
+          <cell r="AH39">
+            <v>3242.1</v>
+          </cell>
+          <cell r="AN39">
             <v>360001</v>
           </cell>
-          <cell r="AS39">
-            <v>1543.1769999999999</v>
+          <cell r="AT39">
+            <v>2212.4609999999998</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
             <v>370001</v>
           </cell>
+          <cell r="E40">
+            <v>374967000</v>
+          </cell>
           <cell r="I40">
-            <v>74.109777666666673</v>
+            <v>374.96699999999998</v>
           </cell>
           <cell r="O40">
             <v>370001</v>
           </cell>
           <cell r="T40">
-            <v>149837.25</v>
+            <v>510728</v>
           </cell>
           <cell r="U40">
-            <v>149.83725000000001</v>
+            <v>510.72800000000001</v>
           </cell>
           <cell r="AA40">
             <v>370001</v>
           </cell>
-          <cell r="AG40">
-            <v>2453.683</v>
-          </cell>
-          <cell r="AM40">
+          <cell r="AH40">
+            <v>3432.3629999999998</v>
+          </cell>
+          <cell r="AN40">
             <v>370001</v>
           </cell>
-          <cell r="AS40">
-            <v>1595.0450000000001</v>
+          <cell r="AT40">
+            <v>2191.14</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
             <v>380001</v>
           </cell>
+          <cell r="E41">
+            <v>397404500</v>
+          </cell>
           <cell r="I41">
-            <v>79.524666666666675</v>
+            <v>397.40449999999998</v>
           </cell>
           <cell r="O41">
             <v>380001</v>
           </cell>
           <cell r="T41">
-            <v>158732.25</v>
+            <v>503195</v>
           </cell>
           <cell r="U41">
-            <v>158.73224999999999</v>
+            <v>503.19499999999999</v>
           </cell>
           <cell r="AA41">
             <v>380001</v>
           </cell>
-          <cell r="AG41">
-            <v>2354.2289999999998</v>
-          </cell>
-          <cell r="AM41">
+          <cell r="AH41">
+            <v>3345.6849999999999</v>
+          </cell>
+          <cell r="AN41">
             <v>380001</v>
           </cell>
-          <cell r="AS41">
-            <v>1702.1849999999999</v>
+          <cell r="AT41">
+            <v>2250.8220000000001</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
             <v>390001</v>
           </cell>
+          <cell r="E42">
+            <v>384502500</v>
+          </cell>
           <cell r="I42">
-            <v>83.085555666666664</v>
+            <v>384.5025</v>
           </cell>
           <cell r="O42">
             <v>390001</v>
           </cell>
           <cell r="T42">
-            <v>153884.75</v>
+            <v>547331</v>
           </cell>
           <cell r="U42">
-            <v>153.88475</v>
+            <v>547.33100000000002</v>
           </cell>
           <cell r="AA42">
             <v>390001</v>
           </cell>
-          <cell r="AG42">
-            <v>2461.25</v>
-          </cell>
-          <cell r="AM42">
+          <cell r="AH42">
+            <v>3539.7629999999999</v>
+          </cell>
+          <cell r="AN42">
             <v>390001</v>
           </cell>
-          <cell r="AS42">
-            <v>1730.068</v>
+          <cell r="AT42">
+            <v>2510.3710000000001</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
             <v>400001</v>
           </cell>
+          <cell r="E43">
+            <v>397963000</v>
+          </cell>
           <cell r="I43">
-            <v>77.797333333333327</v>
+            <v>397.96300000000002</v>
           </cell>
           <cell r="O43">
             <v>400001</v>
           </cell>
           <cell r="T43">
-            <v>159853.25</v>
+            <v>551736</v>
           </cell>
           <cell r="U43">
-            <v>159.85325</v>
+            <v>551.73599999999999</v>
           </cell>
           <cell r="AA43">
             <v>400001</v>
           </cell>
-          <cell r="AG43">
-            <v>2481.143</v>
-          </cell>
-          <cell r="AM43">
+          <cell r="AH43">
+            <v>3891.9</v>
+          </cell>
+          <cell r="AN43">
             <v>400001</v>
           </cell>
-          <cell r="AS43">
-            <v>1847.4359999999999</v>
+          <cell r="AT43">
+            <v>2258.9380000000001</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44">
             <v>410001</v>
           </cell>
+          <cell r="E44">
+            <v>545884500</v>
+          </cell>
           <cell r="I44">
-            <v>83.078999999999994</v>
+            <v>545.8845</v>
           </cell>
           <cell r="O44">
             <v>410001</v>
           </cell>
           <cell r="T44">
-            <v>160187</v>
+            <v>540969</v>
           </cell>
           <cell r="U44">
-            <v>160.18700000000001</v>
+            <v>540.96900000000005</v>
           </cell>
           <cell r="AA44">
             <v>410001</v>
           </cell>
-          <cell r="AG44">
-            <v>2770.623</v>
-          </cell>
-          <cell r="AM44">
+          <cell r="AH44">
+            <v>3905.5</v>
+          </cell>
+          <cell r="AN44">
             <v>410001</v>
           </cell>
-          <cell r="AS44">
-            <v>1867.934</v>
+          <cell r="AT44">
+            <v>2518.5990000000002</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45">
             <v>420001</v>
           </cell>
+          <cell r="E45">
+            <v>452119000</v>
+          </cell>
           <cell r="I45">
-            <v>80.066000000000003</v>
+            <v>452.11900000000003</v>
           </cell>
           <cell r="O45">
             <v>420001</v>
           </cell>
           <cell r="T45">
-            <v>175026.5</v>
+            <v>560409</v>
           </cell>
           <cell r="U45">
-            <v>175.0265</v>
+            <v>560.40899999999999</v>
           </cell>
           <cell r="AA45">
             <v>420001</v>
           </cell>
-          <cell r="AG45">
-            <v>2816.3420000000001</v>
-          </cell>
-          <cell r="AM45">
+          <cell r="AH45">
+            <v>4051.14</v>
+          </cell>
+          <cell r="AN45">
             <v>420001</v>
           </cell>
-          <cell r="AS45">
-            <v>1890.6</v>
+          <cell r="AT45">
+            <v>2501.6210000000001</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46">
             <v>430001</v>
           </cell>
+          <cell r="E46">
+            <v>542568000</v>
+          </cell>
           <cell r="I46">
-            <v>88.672888999999998</v>
+            <v>542.56799999999998</v>
           </cell>
           <cell r="O46">
             <v>430001</v>
           </cell>
           <cell r="T46">
-            <v>184113.75</v>
+            <v>577027</v>
           </cell>
           <cell r="U46">
-            <v>184.11375000000001</v>
+            <v>577.02700000000004</v>
           </cell>
           <cell r="AA46">
             <v>430001</v>
           </cell>
-          <cell r="AG46">
-            <v>2915.4580000000001</v>
-          </cell>
-          <cell r="AM46">
+          <cell r="AH46">
+            <v>4030.1370000000002</v>
+          </cell>
+          <cell r="AN46">
             <v>430001</v>
           </cell>
-          <cell r="AS46">
-            <v>2074.904</v>
+          <cell r="AT46">
+            <v>2569.462</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47">
             <v>440001</v>
           </cell>
+          <cell r="E47">
+            <v>454679000</v>
+          </cell>
           <cell r="I47">
-            <v>85.237555666666665</v>
+            <v>454.67899999999997</v>
           </cell>
           <cell r="O47">
             <v>440001</v>
           </cell>
           <cell r="T47">
-            <v>186730.5</v>
+            <v>595730</v>
           </cell>
           <cell r="U47">
-            <v>186.73050000000001</v>
+            <v>595.73</v>
           </cell>
           <cell r="AA47">
             <v>440001</v>
           </cell>
-          <cell r="AG47">
-            <v>3004.5079999999998</v>
-          </cell>
-          <cell r="AM47">
+          <cell r="AH47">
+            <v>4107.3140000000003</v>
+          </cell>
+          <cell r="AN47">
             <v>440001</v>
           </cell>
-          <cell r="AS47">
-            <v>2021.077</v>
+          <cell r="AT47">
+            <v>2688.62</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
             <v>450001</v>
           </cell>
+          <cell r="E48">
+            <v>450123500</v>
+          </cell>
           <cell r="I48">
-            <v>94.083555666666669</v>
+            <v>450.12349999999998</v>
           </cell>
           <cell r="O48">
             <v>450001</v>
           </cell>
           <cell r="T48">
-            <v>176628</v>
+            <v>618689</v>
           </cell>
           <cell r="U48">
-            <v>176.62799999999999</v>
+            <v>618.68899999999996</v>
           </cell>
           <cell r="AA48">
             <v>450001</v>
           </cell>
-          <cell r="AG48">
-            <v>2903.71</v>
-          </cell>
-          <cell r="AM48">
+          <cell r="AH48">
+            <v>4303.259</v>
+          </cell>
+          <cell r="AN48">
             <v>450001</v>
           </cell>
-          <cell r="AS48">
-            <v>2206.3200000000002</v>
+          <cell r="AT48">
+            <v>2779.8119999999999</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49">
             <v>460001</v>
           </cell>
+          <cell r="E49">
+            <v>525396000</v>
+          </cell>
           <cell r="I49">
-            <v>92.805333333333323</v>
+            <v>525.39599999999996</v>
           </cell>
           <cell r="O49">
             <v>460001</v>
           </cell>
           <cell r="T49">
-            <v>176244.25</v>
+            <v>615382</v>
           </cell>
           <cell r="U49">
-            <v>176.24424999999999</v>
+            <v>615.38199999999995</v>
           </cell>
           <cell r="AA49">
             <v>460001</v>
           </cell>
-          <cell r="AG49">
-            <v>3251.8629999999998</v>
-          </cell>
-          <cell r="AM49">
+          <cell r="AH49">
+            <v>4376.8500000000004</v>
+          </cell>
+          <cell r="AN49">
             <v>460001</v>
           </cell>
-          <cell r="AS49">
-            <v>2124.8310000000001</v>
+          <cell r="AT49">
+            <v>2637.4369999999999</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
             <v>470001</v>
           </cell>
+          <cell r="E50">
+            <v>480264000</v>
+          </cell>
           <cell r="I50">
-            <v>96.575444333333337</v>
+            <v>480.26400000000001</v>
           </cell>
           <cell r="O50">
             <v>470001</v>
           </cell>
           <cell r="T50">
-            <v>179911.5</v>
+            <v>628977</v>
           </cell>
           <cell r="U50">
-            <v>179.91149999999999</v>
+            <v>628.97699999999998</v>
           </cell>
           <cell r="AA50">
             <v>470001</v>
           </cell>
-          <cell r="AG50">
-            <v>3025.2240000000002</v>
-          </cell>
-          <cell r="AM50">
+          <cell r="AH50">
+            <v>4502.0079999999998</v>
+          </cell>
+          <cell r="AN50">
             <v>470001</v>
           </cell>
-          <cell r="AS50">
-            <v>2199.297</v>
+          <cell r="AT50">
+            <v>2920.8519999999999</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51">
             <v>480001</v>
           </cell>
+          <cell r="E51">
+            <v>510850000</v>
+          </cell>
           <cell r="I51">
-            <v>152.59800000000001</v>
+            <v>510.85</v>
           </cell>
           <cell r="O51">
             <v>480001</v>
           </cell>
           <cell r="T51">
-            <v>188925.25</v>
+            <v>654865</v>
           </cell>
           <cell r="U51">
-            <v>188.92525000000001</v>
+            <v>654.86500000000001</v>
           </cell>
           <cell r="AA51">
             <v>480001</v>
           </cell>
-          <cell r="AG51">
-            <v>3274.3209999999999</v>
-          </cell>
-          <cell r="AM51">
+          <cell r="AH51">
+            <v>4428.1120000000001</v>
+          </cell>
+          <cell r="AN51">
             <v>480001</v>
           </cell>
-          <cell r="AS51">
-            <v>2191.5279999999998</v>
+          <cell r="AT51">
+            <v>3036.4119999999998</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52">
             <v>490001</v>
           </cell>
+          <cell r="E52">
+            <v>500465000</v>
+          </cell>
           <cell r="I52">
-            <v>150.05449999999999</v>
+            <v>500.46499999999997</v>
           </cell>
           <cell r="O52">
             <v>490001</v>
           </cell>
           <cell r="T52">
-            <v>196743.75</v>
+            <v>664027</v>
           </cell>
           <cell r="U52">
-            <v>196.74375000000001</v>
+            <v>664.02700000000004</v>
           </cell>
           <cell r="AA52">
             <v>490001</v>
           </cell>
-          <cell r="AG52">
-            <v>3141.9589999999998</v>
-          </cell>
-          <cell r="AM52">
+          <cell r="AH52">
+            <v>4698.1499999999996</v>
+          </cell>
+          <cell r="AN52">
             <v>490001</v>
           </cell>
-          <cell r="AS52">
-            <v>2428.1509999999998</v>
+          <cell r="AT52">
+            <v>3135.3240000000001</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53">
             <v>500001</v>
           </cell>
+          <cell r="E53">
+            <v>522359000</v>
+          </cell>
           <cell r="I53">
-            <v>149.94749999999999</v>
+            <v>522.35900000000004</v>
           </cell>
           <cell r="O53">
             <v>500001</v>
           </cell>
           <cell r="T53">
-            <v>192971.75</v>
+            <v>666903</v>
           </cell>
           <cell r="U53">
-            <v>192.97174999999999</v>
+            <v>666.90300000000002</v>
           </cell>
           <cell r="AA53">
             <v>500001</v>
           </cell>
-          <cell r="AG53">
-            <v>3510.0830000000001</v>
-          </cell>
-          <cell r="AM53">
+          <cell r="AH53">
+            <v>4730.4030000000002</v>
+          </cell>
+          <cell r="AN53">
             <v>500001</v>
           </cell>
-          <cell r="AS53">
-            <v>2461.3159999999998</v>
+          <cell r="AT53">
+            <v>3158.8519999999999</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54">
             <v>510001</v>
           </cell>
+          <cell r="E54">
+            <v>529210000</v>
+          </cell>
           <cell r="I54">
-            <v>155.84174999999999</v>
+            <v>529.21</v>
           </cell>
           <cell r="O54">
             <v>510001</v>
           </cell>
           <cell r="T54">
-            <v>206523.75</v>
+            <v>700865</v>
           </cell>
           <cell r="U54">
-            <v>206.52375000000001</v>
+            <v>700.86500000000001</v>
           </cell>
           <cell r="AA54">
             <v>510001</v>
           </cell>
-          <cell r="AG54">
-            <v>3464.9549999999999</v>
-          </cell>
-          <cell r="AM54">
+          <cell r="AH54">
+            <v>4901.7889999999998</v>
+          </cell>
+          <cell r="AN54">
             <v>510001</v>
           </cell>
-          <cell r="AS54">
-            <v>2426.2199999999998</v>
+          <cell r="AT54">
+            <v>3171.1869999999999</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55">
             <v>520001</v>
           </cell>
+          <cell r="E55">
+            <v>548862000</v>
+          </cell>
           <cell r="I55">
-            <v>181.99850000000001</v>
+            <v>548.86199999999997</v>
           </cell>
           <cell r="O55">
             <v>520001</v>
           </cell>
           <cell r="T55">
-            <v>199310.25</v>
+            <v>717791</v>
           </cell>
           <cell r="U55">
-            <v>199.31025</v>
+            <v>717.79100000000005</v>
           </cell>
           <cell r="AA55">
             <v>520001</v>
           </cell>
-          <cell r="AG55">
-            <v>3352.5279999999998</v>
-          </cell>
-          <cell r="AM55">
+          <cell r="AH55">
+            <v>5008.4059999999999</v>
+          </cell>
+          <cell r="AN55">
             <v>520001</v>
           </cell>
-          <cell r="AS55">
-            <v>2465.819</v>
+          <cell r="AT55">
+            <v>3264.6149999999998</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
             <v>530001</v>
           </cell>
+          <cell r="E56">
+            <v>537209000</v>
+          </cell>
           <cell r="I56">
-            <v>167.36474999999999</v>
+            <v>537.20899999999995</v>
           </cell>
           <cell r="O56">
             <v>530001</v>
           </cell>
           <cell r="T56">
-            <v>203005</v>
+            <v>720830</v>
           </cell>
           <cell r="U56">
-            <v>203.005</v>
+            <v>720.83</v>
           </cell>
           <cell r="AA56">
             <v>530001</v>
           </cell>
-          <cell r="AG56">
-            <v>3675.7240000000002</v>
-          </cell>
-          <cell r="AM56">
+          <cell r="AH56">
+            <v>4742.625</v>
+          </cell>
+          <cell r="AN56">
             <v>530001</v>
           </cell>
-          <cell r="AS56">
-            <v>2636.55</v>
+          <cell r="AT56">
+            <v>3359.145</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
             <v>540001</v>
           </cell>
+          <cell r="E57">
+            <v>552185000</v>
+          </cell>
           <cell r="I57">
-            <v>164.363</v>
+            <v>552.18499999999995</v>
           </cell>
           <cell r="O57">
             <v>540001</v>
           </cell>
           <cell r="T57">
-            <v>207028.25</v>
+            <v>738109</v>
           </cell>
           <cell r="U57">
-            <v>207.02825000000001</v>
+            <v>738.10900000000004</v>
           </cell>
           <cell r="AA57">
             <v>540001</v>
           </cell>
-          <cell r="AG57">
-            <v>3633.0410000000002</v>
-          </cell>
-          <cell r="AM57">
+          <cell r="AH57">
+            <v>4665.32</v>
+          </cell>
+          <cell r="AN57">
             <v>540001</v>
           </cell>
-          <cell r="AS57">
-            <v>2596.1410000000001</v>
+          <cell r="AT57">
+            <v>3454.3719999999998</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
             <v>550001</v>
           </cell>
+          <cell r="E58">
+            <v>557944000</v>
+          </cell>
           <cell r="I58">
-            <v>160</v>
+            <v>557.94399999999996</v>
           </cell>
           <cell r="O58">
             <v>550001</v>
           </cell>
           <cell r="T58">
-            <v>229592</v>
+            <v>756919</v>
           </cell>
           <cell r="U58">
-            <v>229.59200000000001</v>
+            <v>756.91899999999998</v>
           </cell>
           <cell r="AA58">
             <v>550001</v>
           </cell>
-          <cell r="AG58">
-            <v>3704.9830000000002</v>
-          </cell>
-          <cell r="AM58">
+          <cell r="AH58">
+            <v>4724.1189999999997</v>
+          </cell>
+          <cell r="AN58">
             <v>550001</v>
           </cell>
-          <cell r="AS58">
-            <v>2783.1689999999999</v>
+          <cell r="AT58">
+            <v>3411.643</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
             <v>560001</v>
           </cell>
+          <cell r="E59">
+            <v>567299000</v>
+          </cell>
           <cell r="I59">
-            <v>148.83324999999999</v>
+            <v>567.29899999999998</v>
           </cell>
           <cell r="O59">
             <v>560001</v>
           </cell>
           <cell r="T59">
-            <v>221198.75</v>
+            <v>754411</v>
           </cell>
           <cell r="U59">
-            <v>221.19874999999999</v>
+            <v>754.41099999999994</v>
           </cell>
           <cell r="AA59">
             <v>560001</v>
           </cell>
-          <cell r="AG59">
-            <v>3937.3760000000002</v>
-          </cell>
-          <cell r="AM59">
+          <cell r="AH59">
+            <v>4676.4530000000004</v>
+          </cell>
+          <cell r="AN59">
             <v>560001</v>
           </cell>
-          <cell r="AS59">
-            <v>2628.9169999999999</v>
+          <cell r="AT59">
+            <v>3526.8180000000002</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60">
             <v>570001</v>
           </cell>
+          <cell r="E60">
+            <v>586000000</v>
+          </cell>
           <cell r="I60">
-            <v>158.66675000000001</v>
+            <v>586</v>
           </cell>
           <cell r="O60">
             <v>570001</v>
           </cell>
           <cell r="T60">
-            <v>542452</v>
+            <v>764137</v>
           </cell>
           <cell r="U60">
-            <v>542.452</v>
+            <v>764.13699999999994</v>
           </cell>
           <cell r="AA60">
             <v>570001</v>
           </cell>
-          <cell r="AG60">
-            <v>4161.415</v>
-          </cell>
-          <cell r="AM60">
+          <cell r="AH60">
+            <v>4673.7420000000002</v>
+          </cell>
+          <cell r="AN60">
             <v>570001</v>
           </cell>
-          <cell r="AS60">
-            <v>2990.1840000000002</v>
+          <cell r="AT60">
+            <v>3623.4540000000002</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61">
             <v>580001</v>
           </cell>
+          <cell r="E61">
+            <v>604319000</v>
+          </cell>
           <cell r="I61">
-            <v>157.98750000000001</v>
+            <v>604.31899999999996</v>
           </cell>
           <cell r="O61">
             <v>580001</v>
           </cell>
           <cell r="T61">
-            <v>225951.25</v>
+            <v>785956</v>
           </cell>
           <cell r="U61">
-            <v>225.95124999999999</v>
+            <v>785.95600000000002</v>
           </cell>
           <cell r="AA61">
             <v>580001</v>
           </cell>
-          <cell r="AG61">
-            <v>4585.2669999999998</v>
-          </cell>
-          <cell r="AM61">
+          <cell r="AH61">
+            <v>4771.3010000000004</v>
+          </cell>
+          <cell r="AN61">
             <v>580001</v>
           </cell>
-          <cell r="AS61">
-            <v>2701.11</v>
+          <cell r="AT61">
+            <v>3557.4940000000001</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62">
             <v>590001</v>
           </cell>
+          <cell r="E62">
+            <v>679540000</v>
+          </cell>
           <cell r="I62">
-            <v>166.67</v>
+            <v>679.54</v>
           </cell>
           <cell r="O62">
             <v>590001</v>
           </cell>
           <cell r="T62">
-            <v>229711.75</v>
+            <v>823142</v>
           </cell>
           <cell r="U62">
-            <v>229.71174999999999</v>
+            <v>823.14200000000005</v>
           </cell>
           <cell r="AA62">
             <v>590001</v>
           </cell>
-          <cell r="AG62">
-            <v>4553.5069999999996</v>
-          </cell>
-          <cell r="AM62">
+          <cell r="AH62">
+            <v>4765.4849999999997</v>
+          </cell>
+          <cell r="AN62">
             <v>590001</v>
           </cell>
-          <cell r="AS62">
-            <v>2889.3440000000001</v>
+          <cell r="AT62">
+            <v>3655.777</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63">
             <v>600001</v>
           </cell>
+          <cell r="E63">
+            <v>678413000</v>
+          </cell>
           <cell r="I63">
-            <v>166.14375000000001</v>
+            <v>678.41300000000001</v>
           </cell>
           <cell r="O63">
             <v>600001</v>
           </cell>
           <cell r="T63">
-            <v>237225.5</v>
+            <v>821448</v>
           </cell>
           <cell r="U63">
-            <v>237.22550000000001</v>
+            <v>821.44799999999998</v>
           </cell>
           <cell r="AA63">
             <v>600001</v>
           </cell>
-          <cell r="AG63">
-            <v>5036.3100000000004</v>
-          </cell>
-          <cell r="AM63">
+          <cell r="AH63">
+            <v>4906.5290000000005</v>
+          </cell>
+          <cell r="AN63">
             <v>600001</v>
           </cell>
-          <cell r="AS63">
-            <v>2877.5880000000002</v>
+          <cell r="AT63">
+            <v>3861.7269999999999</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64">
             <v>610001</v>
           </cell>
+          <cell r="E64">
+            <v>657579000</v>
+          </cell>
           <cell r="I64">
-            <v>171.65725</v>
+            <v>657.57899999999995</v>
           </cell>
           <cell r="O64">
             <v>610001</v>
           </cell>
           <cell r="T64">
-            <v>526764</v>
+            <v>903789</v>
           </cell>
           <cell r="U64">
-            <v>526.76400000000001</v>
+            <v>903.78899999999999</v>
           </cell>
           <cell r="AA64">
             <v>610001</v>
           </cell>
-          <cell r="AG64">
-            <v>5279.7190000000001</v>
-          </cell>
-          <cell r="AM64">
+          <cell r="AH64">
+            <v>4975.2060000000001</v>
+          </cell>
+          <cell r="AN64">
             <v>610001</v>
           </cell>
-          <cell r="AS64">
-            <v>2915.8290000000002</v>
+          <cell r="AT64">
+            <v>3910.181</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65">
             <v>620001</v>
           </cell>
+          <cell r="E65">
+            <v>698951000</v>
+          </cell>
           <cell r="I65">
-            <v>172.328</v>
+            <v>698.95100000000002</v>
           </cell>
           <cell r="O65">
             <v>620001</v>
           </cell>
           <cell r="T65">
-            <v>239910.75</v>
+            <v>836831</v>
           </cell>
           <cell r="U65">
-            <v>239.91075000000001</v>
+            <v>836.83100000000002</v>
           </cell>
           <cell r="AA65">
             <v>620001</v>
           </cell>
-          <cell r="AG65">
-            <v>4167.6949999999997</v>
-          </cell>
-          <cell r="AM65">
+          <cell r="AH65">
+            <v>5007.8069999999998</v>
+          </cell>
+          <cell r="AN65">
             <v>620001</v>
           </cell>
-          <cell r="AS65">
-            <v>3106.1950000000002</v>
+          <cell r="AT65">
+            <v>3482.127</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66">
             <v>630001</v>
           </cell>
+          <cell r="E66">
+            <v>662992000</v>
+          </cell>
           <cell r="I66">
-            <v>173.65799999999999</v>
+            <v>662.99199999999996</v>
           </cell>
           <cell r="O66">
             <v>630001</v>
           </cell>
           <cell r="T66">
-            <v>246555.5</v>
+            <v>848377</v>
           </cell>
           <cell r="U66">
-            <v>246.55549999999999</v>
+            <v>848.37699999999995</v>
           </cell>
           <cell r="AA66">
             <v>630001</v>
           </cell>
-          <cell r="AG66">
-            <v>4525.5259999999998</v>
-          </cell>
-          <cell r="AM66">
+          <cell r="AH66">
+            <v>5248.2070000000003</v>
+          </cell>
+          <cell r="AN66">
             <v>630001</v>
           </cell>
-          <cell r="AS66">
-            <v>2929.5439999999999</v>
+          <cell r="AT66">
+            <v>3767.1060000000002</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67">
             <v>640001</v>
           </cell>
+          <cell r="E67">
+            <v>689065000</v>
+          </cell>
           <cell r="I67">
-            <v>180.85024999999999</v>
+            <v>689.06500000000005</v>
           </cell>
           <cell r="O67">
             <v>640001</v>
           </cell>
           <cell r="T67">
-            <v>508734</v>
+            <v>871012</v>
           </cell>
           <cell r="U67">
-            <v>508.73399999999998</v>
+            <v>871.01199999999994</v>
           </cell>
           <cell r="AA67">
             <v>640001</v>
           </cell>
-          <cell r="AG67">
-            <v>4658.0219999999999</v>
-          </cell>
-          <cell r="AM67">
+          <cell r="AH67">
+            <v>5429.732</v>
+          </cell>
+          <cell r="AN67">
             <v>640001</v>
           </cell>
-          <cell r="AS67">
-            <v>3173.7629999999999</v>
+          <cell r="AT67">
+            <v>3726.55</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68">
             <v>650001</v>
           </cell>
+          <cell r="E68">
+            <v>715457000</v>
+          </cell>
           <cell r="I68">
-            <v>187.56375</v>
+            <v>715.45699999999999</v>
           </cell>
           <cell r="O68">
             <v>650001</v>
           </cell>
           <cell r="T68">
-            <v>545460</v>
+            <v>934337</v>
           </cell>
           <cell r="U68">
-            <v>545.46</v>
+            <v>934.33699999999999</v>
           </cell>
           <cell r="AA68">
             <v>650001</v>
           </cell>
-          <cell r="AG68">
-            <v>4435.942</v>
-          </cell>
-          <cell r="AM68">
+          <cell r="AH68">
+            <v>5338.1080000000002</v>
+          </cell>
+          <cell r="AN68">
             <v>650001</v>
           </cell>
-          <cell r="AS68">
-            <v>3388.2040000000002</v>
+          <cell r="AT68">
+            <v>3615.9749999999999</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69">
             <v>660001</v>
           </cell>
+          <cell r="E69">
+            <v>685859000</v>
+          </cell>
           <cell r="I69">
-            <v>182.89625000000001</v>
+            <v>685.85900000000004</v>
           </cell>
           <cell r="O69">
             <v>660001</v>
           </cell>
           <cell r="T69">
-            <v>535443</v>
+            <v>913059</v>
           </cell>
           <cell r="U69">
-            <v>535.44299999999998</v>
+            <v>913.05899999999997</v>
           </cell>
           <cell r="AA69">
             <v>660001</v>
           </cell>
-          <cell r="AG69">
-            <v>4173.0249999999996</v>
-          </cell>
-          <cell r="AM69">
+          <cell r="AH69">
+            <v>5503.2820000000002</v>
+          </cell>
+          <cell r="AN69">
             <v>660001</v>
           </cell>
-          <cell r="AS69">
-            <v>3474.2860000000001</v>
+          <cell r="AT69">
+            <v>3647.39</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70">
             <v>670001</v>
           </cell>
+          <cell r="E70">
+            <v>705291000</v>
+          </cell>
           <cell r="I70">
-            <v>181.4495</v>
+            <v>705.29100000000005</v>
           </cell>
           <cell r="O70">
             <v>670001</v>
           </cell>
           <cell r="T70">
-            <v>527538</v>
+            <v>902755</v>
           </cell>
           <cell r="U70">
-            <v>527.53800000000001</v>
+            <v>902.755</v>
           </cell>
           <cell r="AA70">
             <v>670001</v>
           </cell>
-          <cell r="AG70">
-            <v>4610.9139999999998</v>
-          </cell>
-          <cell r="AM70">
+          <cell r="AH70">
+            <v>5478.7370000000001</v>
+          </cell>
+          <cell r="AN70">
             <v>670001</v>
           </cell>
-          <cell r="AS70">
-            <v>3528.5819999999999</v>
+          <cell r="AT70">
+            <v>3630.6439999999998</v>
           </cell>
         </row>
         <row r="71">
           <cell r="C71">
             <v>680001</v>
           </cell>
+          <cell r="E71">
+            <v>734621000</v>
+          </cell>
           <cell r="I71">
-            <v>191.4425</v>
+            <v>734.62099999999998</v>
           </cell>
           <cell r="O71">
             <v>680001</v>
           </cell>
           <cell r="T71">
-            <v>634150</v>
+            <v>925139</v>
           </cell>
           <cell r="U71">
-            <v>634.15</v>
+            <v>925.13900000000001</v>
           </cell>
           <cell r="AA71">
             <v>680001</v>
           </cell>
-          <cell r="AG71">
-            <v>4505.6120000000001</v>
-          </cell>
-          <cell r="AM71">
+          <cell r="AH71">
+            <v>5584.2049999999999</v>
+          </cell>
+          <cell r="AN71">
             <v>680001</v>
           </cell>
-          <cell r="AS71">
-            <v>3878.01</v>
+          <cell r="AT71">
+            <v>3671.7240000000002</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72">
             <v>690001</v>
           </cell>
+          <cell r="E72">
+            <v>761843000</v>
+          </cell>
           <cell r="I72">
-            <v>200.68950000000001</v>
+            <v>761.84299999999996</v>
           </cell>
           <cell r="O72">
             <v>690001</v>
           </cell>
           <cell r="T72">
-            <v>644347</v>
+            <v>971213</v>
           </cell>
           <cell r="U72">
-            <v>644.34699999999998</v>
+            <v>971.21299999999997</v>
           </cell>
           <cell r="AA72">
             <v>690001</v>
           </cell>
-          <cell r="AG72">
-            <v>4916.2749999999996</v>
-          </cell>
-          <cell r="AM72">
+          <cell r="AH72">
+            <v>5832.5569999999998</v>
+          </cell>
+          <cell r="AN72">
             <v>690001</v>
           </cell>
-          <cell r="AS72">
-            <v>3962.08</v>
+          <cell r="AT72">
+            <v>3726.6019999999999</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
             <v>700001</v>
           </cell>
+          <cell r="E73">
+            <v>725496000</v>
+          </cell>
           <cell r="I73">
-            <v>197.87524999999999</v>
+            <v>725.49599999999998</v>
           </cell>
           <cell r="O73">
             <v>700001</v>
           </cell>
           <cell r="T73">
-            <v>635874</v>
+            <v>947294</v>
           </cell>
           <cell r="U73">
-            <v>635.87400000000002</v>
+            <v>947.29399999999998</v>
           </cell>
           <cell r="AA73">
             <v>700001</v>
           </cell>
-          <cell r="AG73">
-            <v>5895.9880000000003</v>
-          </cell>
-          <cell r="AM73">
+          <cell r="AH73">
+            <v>6056.0129999999999</v>
+          </cell>
+          <cell r="AN73">
             <v>700001</v>
           </cell>
-          <cell r="AS73">
-            <v>4153.5640000000003</v>
+          <cell r="AT73">
+            <v>3778.6819999999998</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
             <v>710001</v>
           </cell>
+          <cell r="E74">
+            <v>738368000</v>
+          </cell>
           <cell r="I74">
-            <v>191.78649999999999</v>
+            <v>738.36800000000005</v>
           </cell>
           <cell r="O74">
             <v>710001</v>
           </cell>
           <cell r="T74">
-            <v>648121</v>
+            <v>948313</v>
           </cell>
           <cell r="U74">
-            <v>648.12099999999998</v>
+            <v>948.31299999999999</v>
           </cell>
           <cell r="AA74">
             <v>710001</v>
           </cell>
-          <cell r="AG74">
-            <v>5068.9560000000001</v>
-          </cell>
-          <cell r="AM74">
+          <cell r="AH74">
+            <v>6058.7870000000003</v>
+          </cell>
+          <cell r="AN74">
             <v>710001</v>
           </cell>
-          <cell r="AS74">
-            <v>4069.9780000000001</v>
+          <cell r="AT74">
+            <v>3860.2860000000001</v>
           </cell>
         </row>
         <row r="75">
           <cell r="C75">
             <v>720001</v>
           </cell>
+          <cell r="E75">
+            <v>771168000</v>
+          </cell>
           <cell r="I75">
-            <v>194.80224999999999</v>
+            <v>771.16800000000001</v>
           </cell>
           <cell r="O75">
             <v>720001</v>
           </cell>
           <cell r="T75">
-            <v>689972</v>
+            <v>979651</v>
           </cell>
           <cell r="U75">
-            <v>689.97199999999998</v>
+            <v>979.65099999999995</v>
           </cell>
           <cell r="AA75">
             <v>720001</v>
           </cell>
-          <cell r="AG75">
-            <v>4974.951</v>
-          </cell>
-          <cell r="AM75">
+          <cell r="AH75">
+            <v>6076.7240000000002</v>
+          </cell>
+          <cell r="AN75">
             <v>720001</v>
           </cell>
-          <cell r="AS75">
-            <v>3336.5859999999998</v>
+          <cell r="AT75">
+            <v>3889.4989999999998</v>
           </cell>
         </row>
         <row r="76">
           <cell r="C76">
             <v>730001</v>
           </cell>
+          <cell r="E76">
+            <v>776526000</v>
+          </cell>
           <cell r="I76">
-            <v>204.643</v>
+            <v>776.52599999999995</v>
           </cell>
           <cell r="O76">
             <v>730001</v>
           </cell>
           <cell r="T76">
-            <v>587519</v>
+            <v>983095</v>
           </cell>
           <cell r="U76">
-            <v>587.51900000000001</v>
+            <v>983.09500000000003</v>
           </cell>
           <cell r="AA76">
             <v>730001</v>
           </cell>
-          <cell r="AG76">
-            <v>5535.1530000000002</v>
-          </cell>
-          <cell r="AM76">
+          <cell r="AH76">
+            <v>6310.3109999999997</v>
+          </cell>
+          <cell r="AN76">
             <v>730001</v>
           </cell>
-          <cell r="AS76">
-            <v>3462.348</v>
+          <cell r="AT76">
+            <v>3920.2049999999999</v>
           </cell>
         </row>
         <row r="77">
           <cell r="C77">
             <v>740001</v>
           </cell>
+          <cell r="E77">
+            <v>790664000</v>
+          </cell>
           <cell r="I77">
-            <v>207.64949999999999</v>
+            <v>790.66399999999999</v>
           </cell>
           <cell r="O77">
             <v>740001</v>
           </cell>
           <cell r="T77">
-            <v>584619</v>
+            <v>1071166</v>
           </cell>
           <cell r="U77">
-            <v>584.61900000000003</v>
+            <v>1071.1659999999999</v>
           </cell>
           <cell r="AA77">
             <v>740001</v>
           </cell>
-          <cell r="AG77">
-            <v>5543.6769999999997</v>
-          </cell>
-          <cell r="AM77">
+          <cell r="AH77">
+            <v>6116.9939999999997</v>
+          </cell>
+          <cell r="AN77">
             <v>740001</v>
           </cell>
-          <cell r="AS77">
-            <v>3573.9679999999998</v>
+          <cell r="AT77">
+            <v>4035.0149999999999</v>
           </cell>
         </row>
         <row r="78">
           <cell r="C78">
             <v>750001</v>
           </cell>
+          <cell r="E78">
+            <v>782049000</v>
+          </cell>
           <cell r="I78">
-            <v>207.01175000000001</v>
+            <v>782.04899999999998</v>
           </cell>
           <cell r="O78">
             <v>750001</v>
           </cell>
           <cell r="T78">
-            <v>783453</v>
+            <v>1027270</v>
           </cell>
           <cell r="U78">
-            <v>783.45299999999997</v>
+            <v>1027.27</v>
           </cell>
           <cell r="AA78">
             <v>750001</v>
           </cell>
-          <cell r="AG78">
-            <v>5521.5079999999998</v>
-          </cell>
-          <cell r="AM78">
+          <cell r="AH78">
+            <v>6483.8860000000004</v>
+          </cell>
+          <cell r="AN78">
             <v>750001</v>
           </cell>
-          <cell r="AS78">
-            <v>3712.66</v>
+          <cell r="AT78">
+            <v>4117.4979999999996</v>
           </cell>
         </row>
         <row r="79">
           <cell r="C79">
             <v>760001</v>
           </cell>
+          <cell r="E79">
+            <v>896494000</v>
+          </cell>
           <cell r="I79">
-            <v>212.40975</v>
+            <v>896.49400000000003</v>
           </cell>
           <cell r="O79">
             <v>760001</v>
           </cell>
           <cell r="T79">
-            <v>778506</v>
+            <v>1040072</v>
           </cell>
           <cell r="U79">
-            <v>778.50599999999997</v>
+            <v>1040.0719999999999</v>
           </cell>
           <cell r="AA79">
             <v>760001</v>
           </cell>
-          <cell r="AG79">
-            <v>5659.8469999999998</v>
-          </cell>
-          <cell r="AM79">
+          <cell r="AH79">
+            <v>6506.009</v>
+          </cell>
+          <cell r="AN79">
             <v>760001</v>
           </cell>
-          <cell r="AS79">
-            <v>3633.3220000000001</v>
+          <cell r="AT79">
+            <v>4203.2700000000004</v>
           </cell>
         </row>
         <row r="80">
           <cell r="C80">
             <v>770001</v>
           </cell>
+          <cell r="E80">
+            <v>878035000</v>
+          </cell>
           <cell r="I80">
-            <v>219.26599999999999</v>
+            <v>878.03499999999997</v>
           </cell>
           <cell r="O80">
             <v>770001</v>
           </cell>
           <cell r="T80">
-            <v>713630</v>
+            <v>1075728</v>
           </cell>
           <cell r="U80">
-            <v>713.63</v>
+            <v>1075.7280000000001</v>
           </cell>
           <cell r="AA80">
             <v>770001</v>
           </cell>
-          <cell r="AG80">
-            <v>6063.74</v>
-          </cell>
-          <cell r="AM80">
+          <cell r="AH80">
+            <v>7154.79</v>
+          </cell>
+          <cell r="AN80">
             <v>770001</v>
           </cell>
-          <cell r="AS80">
-            <v>3572.1990000000001</v>
+          <cell r="AT80">
+            <v>4241.085</v>
           </cell>
         </row>
         <row r="81">
           <cell r="C81">
             <v>780001</v>
           </cell>
+          <cell r="E81">
+            <v>842006000</v>
+          </cell>
           <cell r="I81">
-            <v>240.26050000000001</v>
+            <v>842.00599999999997</v>
           </cell>
           <cell r="O81">
             <v>780001</v>
           </cell>
           <cell r="T81">
-            <v>730185</v>
+            <v>1060043</v>
           </cell>
           <cell r="U81">
-            <v>730.18499999999995</v>
+            <v>1060.0429999999999</v>
           </cell>
           <cell r="AA81">
             <v>780001</v>
           </cell>
-          <cell r="AG81">
-            <v>6453.2389999999996</v>
-          </cell>
-          <cell r="AM81">
+          <cell r="AH81">
+            <v>7860.1679999999997</v>
+          </cell>
+          <cell r="AN81">
             <v>780001</v>
           </cell>
-          <cell r="AS81">
-            <v>3844.3440000000001</v>
+          <cell r="AT81">
+            <v>4374.1670000000004</v>
           </cell>
         </row>
         <row r="82">
           <cell r="C82">
             <v>790001</v>
           </cell>
+          <cell r="E82">
+            <v>827226000</v>
+          </cell>
           <cell r="I82">
-            <v>233.74975000000001</v>
+            <v>827.226</v>
           </cell>
           <cell r="O82">
             <v>790001</v>
           </cell>
           <cell r="T82">
-            <v>790012</v>
+            <v>1071955</v>
           </cell>
           <cell r="U82">
-            <v>790.01199999999994</v>
+            <v>1071.9549999999999</v>
           </cell>
           <cell r="AA82">
             <v>790001</v>
           </cell>
-          <cell r="AG82">
-            <v>6254.7430000000004</v>
-          </cell>
-          <cell r="AM82">
+          <cell r="AH82">
+            <v>7629.2510000000002</v>
+          </cell>
+          <cell r="AN82">
             <v>790001</v>
           </cell>
-          <cell r="AS82">
-            <v>3765.058</v>
+          <cell r="AT82">
+            <v>4524.4859999999999</v>
           </cell>
         </row>
         <row r="83">
           <cell r="C83">
             <v>800001</v>
           </cell>
+          <cell r="E83">
+            <v>859153000</v>
+          </cell>
           <cell r="I83">
-            <v>231.36199999999999</v>
+            <v>859.15300000000002</v>
           </cell>
           <cell r="O83">
             <v>800001</v>
           </cell>
           <cell r="T83">
-            <v>782441</v>
+            <v>1096126</v>
           </cell>
           <cell r="U83">
-            <v>782.44100000000003</v>
+            <v>1096.126</v>
           </cell>
           <cell r="AA83">
             <v>800001</v>
           </cell>
-          <cell r="AG83">
-            <v>6503.424</v>
-          </cell>
-          <cell r="AM83">
+          <cell r="AH83">
+            <v>8295.2939999999999</v>
+          </cell>
+          <cell r="AN83">
             <v>800001</v>
           </cell>
-          <cell r="AS83">
-            <v>4044.674</v>
+          <cell r="AT83">
+            <v>4572.777</v>
           </cell>
         </row>
         <row r="84">
           <cell r="C84">
             <v>810001</v>
           </cell>
+          <cell r="E84">
+            <v>889903000</v>
+          </cell>
           <cell r="I84">
-            <v>228.21899999999999</v>
+            <v>889.90300000000002</v>
           </cell>
           <cell r="O84">
             <v>810001</v>
           </cell>
           <cell r="T84">
-            <v>781798</v>
+            <v>1109603</v>
           </cell>
           <cell r="U84">
-            <v>781.798</v>
+            <v>1109.6030000000001</v>
           </cell>
           <cell r="AA84">
             <v>810001</v>
           </cell>
-          <cell r="AG84">
-            <v>5803.7380000000003</v>
-          </cell>
-          <cell r="AM84">
+          <cell r="AH84">
+            <v>7608.8239999999996</v>
+          </cell>
+          <cell r="AN84">
             <v>810001</v>
           </cell>
-          <cell r="AS84">
-            <v>4281.9229999999998</v>
+          <cell r="AT84">
+            <v>4576.777</v>
           </cell>
         </row>
         <row r="85">
           <cell r="C85">
             <v>820001</v>
           </cell>
+          <cell r="E85">
+            <v>859116000</v>
+          </cell>
           <cell r="I85">
-            <v>233.63325</v>
+            <v>859.11599999999999</v>
           </cell>
           <cell r="O85">
             <v>820001</v>
           </cell>
           <cell r="T85">
-            <v>654195</v>
+            <v>1108136</v>
           </cell>
           <cell r="U85">
-            <v>654.19500000000005</v>
+            <v>1108.136</v>
           </cell>
           <cell r="AA85">
             <v>820001</v>
           </cell>
-          <cell r="AG85">
-            <v>5789.2860000000001</v>
-          </cell>
-          <cell r="AM85">
+          <cell r="AH85">
+            <v>8488.3430000000008</v>
+          </cell>
+          <cell r="AN85">
             <v>820001</v>
           </cell>
-          <cell r="AS85">
-            <v>4441.8500000000004</v>
+          <cell r="AT85">
+            <v>4651.8019999999997</v>
           </cell>
         </row>
         <row r="86">
           <cell r="C86">
             <v>830001</v>
           </cell>
+          <cell r="E86">
+            <v>907131000</v>
+          </cell>
           <cell r="I86">
-            <v>236.79349999999999</v>
+            <v>907.13099999999997</v>
           </cell>
           <cell r="O86">
             <v>830001</v>
           </cell>
           <cell r="T86">
-            <v>685524</v>
+            <v>1168393</v>
           </cell>
           <cell r="U86">
-            <v>685.524</v>
+            <v>1168.393</v>
           </cell>
           <cell r="AA86">
             <v>830001</v>
           </cell>
-          <cell r="AG86">
-            <v>5857.95</v>
-          </cell>
-          <cell r="AM86">
+          <cell r="AH86">
+            <v>8298.616</v>
+          </cell>
+          <cell r="AN86">
             <v>830001</v>
           </cell>
-          <cell r="AS86">
-            <v>4137.3729999999996</v>
+          <cell r="AT86">
+            <v>4657.991</v>
           </cell>
         </row>
         <row r="87">
           <cell r="C87">
             <v>840001</v>
           </cell>
+          <cell r="E87">
+            <v>875740000</v>
+          </cell>
           <cell r="I87">
-            <v>228.07075</v>
+            <v>875.74</v>
           </cell>
           <cell r="O87">
             <v>840001</v>
           </cell>
           <cell r="T87">
-            <v>717730</v>
+            <v>1144081</v>
           </cell>
           <cell r="U87">
-            <v>717.73</v>
+            <v>1144.0809999999999</v>
           </cell>
           <cell r="AA87">
             <v>840001</v>
           </cell>
-          <cell r="AG87">
-            <v>5761.6149999999998</v>
-          </cell>
-          <cell r="AM87">
+          <cell r="AH87">
+            <v>7791.7389999999996</v>
+          </cell>
+          <cell r="AN87">
             <v>840001</v>
           </cell>
-          <cell r="AS87">
-            <v>4080.8510000000001</v>
+          <cell r="AT87">
+            <v>4745.2939999999999</v>
           </cell>
         </row>
         <row r="88">
           <cell r="C88">
             <v>850001</v>
           </cell>
+          <cell r="E88">
+            <v>892549000</v>
+          </cell>
           <cell r="I88">
-            <v>250.31174999999999</v>
+            <v>892.54899999999998</v>
           </cell>
           <cell r="O88">
             <v>850001</v>
           </cell>
           <cell r="T88">
-            <v>731325</v>
+            <v>1180079</v>
           </cell>
           <cell r="U88">
-            <v>731.32500000000005</v>
+            <v>1180.079</v>
           </cell>
           <cell r="AA88">
             <v>850001</v>
           </cell>
-          <cell r="AG88">
-            <v>6308.63</v>
-          </cell>
-          <cell r="AM88">
+          <cell r="AH88">
+            <v>8262.6839999999993</v>
+          </cell>
+          <cell r="AN88">
             <v>850001</v>
           </cell>
-          <cell r="AS88">
-            <v>4415.643</v>
+          <cell r="AT88">
+            <v>4831.0870000000004</v>
           </cell>
         </row>
         <row r="89">
           <cell r="C89">
             <v>860001</v>
           </cell>
+          <cell r="E89">
+            <v>1396177000</v>
+          </cell>
           <cell r="I89">
-            <v>236.39775</v>
+            <v>1396.1769999999999</v>
           </cell>
           <cell r="O89">
             <v>860001</v>
           </cell>
           <cell r="T89">
-            <v>736426</v>
+            <v>1173115</v>
           </cell>
           <cell r="U89">
-            <v>736.42600000000004</v>
+            <v>1173.115</v>
           </cell>
           <cell r="AA89">
             <v>860001</v>
           </cell>
-          <cell r="AG89">
-            <v>6214.7659999999996</v>
-          </cell>
-          <cell r="AM89">
+          <cell r="AH89">
+            <v>7870.83</v>
+          </cell>
+          <cell r="AN89">
             <v>860001</v>
           </cell>
-          <cell r="AS89">
-            <v>4527.7470000000003</v>
+          <cell r="AT89">
+            <v>4893.1899999999996</v>
           </cell>
         </row>
         <row r="90">
           <cell r="C90">
             <v>870001</v>
           </cell>
+          <cell r="E90">
+            <v>942559000</v>
+          </cell>
           <cell r="I90">
-            <v>250.74850000000001</v>
+            <v>942.55899999999997</v>
           </cell>
           <cell r="O90">
             <v>870001</v>
           </cell>
           <cell r="T90">
-            <v>720855</v>
+            <v>1185946</v>
           </cell>
           <cell r="U90">
-            <v>720.85500000000002</v>
+            <v>1185.9459999999999</v>
           </cell>
           <cell r="AA90">
             <v>870001</v>
           </cell>
-          <cell r="AG90">
-            <v>6235.0829999999996</v>
-          </cell>
-          <cell r="AM90">
+          <cell r="AH90">
+            <v>8170.54</v>
+          </cell>
+          <cell r="AN90">
             <v>870001</v>
           </cell>
-          <cell r="AS90">
-            <v>4493.2730000000001</v>
+          <cell r="AT90">
+            <v>4905.5940000000001</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91">
             <v>880001</v>
           </cell>
+          <cell r="E91">
+            <v>914607000</v>
+          </cell>
           <cell r="I91">
-            <v>258.60449999999997</v>
+            <v>914.60699999999997</v>
           </cell>
           <cell r="O91">
             <v>880001</v>
           </cell>
           <cell r="T91">
-            <v>712844</v>
+            <v>1203540</v>
           </cell>
           <cell r="U91">
-            <v>712.84400000000005</v>
+            <v>1203.54</v>
           </cell>
           <cell r="AA91">
             <v>880001</v>
           </cell>
-          <cell r="AG91">
-            <v>6418.6760000000004</v>
-          </cell>
-          <cell r="AM91">
+          <cell r="AH91">
+            <v>8625.5300000000007</v>
+          </cell>
+          <cell r="AN91">
             <v>880001</v>
           </cell>
-          <cell r="AS91">
-            <v>4550.8490000000002</v>
+          <cell r="AT91">
+            <v>5539.4849999999997</v>
           </cell>
         </row>
         <row r="92">
           <cell r="C92">
             <v>890001</v>
           </cell>
+          <cell r="E92">
+            <v>950483000</v>
+          </cell>
           <cell r="I92">
-            <v>575.11500000000001</v>
+            <v>950.48299999999995</v>
           </cell>
           <cell r="O92">
             <v>890001</v>
           </cell>
           <cell r="T92">
-            <v>698336</v>
+            <v>1233005</v>
           </cell>
           <cell r="U92">
-            <v>698.33600000000001</v>
+            <v>1233.0050000000001</v>
           </cell>
           <cell r="AA92">
             <v>890001</v>
           </cell>
-          <cell r="AG92">
-            <v>6063.4979999999996</v>
-          </cell>
-          <cell r="AM92">
+          <cell r="AH92">
+            <v>8112.8220000000001</v>
+          </cell>
+          <cell r="AN92">
             <v>890001</v>
           </cell>
-          <cell r="AS92">
-            <v>4929.4449999999997</v>
+          <cell r="AT92">
+            <v>6335.424</v>
           </cell>
         </row>
         <row r="93">
           <cell r="C93">
             <v>900001</v>
           </cell>
+          <cell r="E93">
+            <v>902959000</v>
+          </cell>
           <cell r="I93">
-            <v>537.69500000000005</v>
+            <v>902.95899999999995</v>
           </cell>
           <cell r="O93">
             <v>900001</v>
           </cell>
           <cell r="T93">
-            <v>706408</v>
+            <v>1272455</v>
           </cell>
           <cell r="U93">
-            <v>706.40800000000002</v>
+            <v>1272.4549999999999</v>
           </cell>
           <cell r="AA93">
             <v>900001</v>
           </cell>
-          <cell r="AG93">
-            <v>6228.0209999999997</v>
-          </cell>
-          <cell r="AM93">
+          <cell r="AH93">
+            <v>8336.7029999999995</v>
+          </cell>
+          <cell r="AN93">
             <v>900001</v>
           </cell>
-          <cell r="AS93">
-            <v>5190.4440000000004</v>
+          <cell r="AT93">
+            <v>5585.2629999999999</v>
           </cell>
         </row>
         <row r="94">
           <cell r="C94">
             <v>910001</v>
           </cell>
+          <cell r="E94">
+            <v>945241000</v>
+          </cell>
           <cell r="I94">
-            <v>517.60299999999995</v>
+            <v>945.24099999999999</v>
           </cell>
           <cell r="O94">
             <v>910001</v>
           </cell>
           <cell r="T94">
-            <v>726034</v>
+            <v>1296855</v>
           </cell>
           <cell r="U94">
-            <v>726.03399999999999</v>
+            <v>1296.855</v>
           </cell>
           <cell r="AA94">
             <v>910001</v>
           </cell>
-          <cell r="AG94">
-            <v>6377.4260000000004</v>
-          </cell>
-          <cell r="AM94">
+          <cell r="AH94">
+            <v>8128.4780000000001</v>
+          </cell>
+          <cell r="AN94">
             <v>910001</v>
           </cell>
-          <cell r="AS94">
-            <v>5170.74</v>
+          <cell r="AT94">
+            <v>6346.335</v>
           </cell>
         </row>
         <row r="95">
           <cell r="C95">
             <v>920001</v>
           </cell>
+          <cell r="E95">
+            <v>1051693000</v>
+          </cell>
           <cell r="I95">
-            <v>538.173</v>
+            <v>1051.693</v>
           </cell>
           <cell r="O95">
             <v>920001</v>
           </cell>
           <cell r="T95">
-            <v>750621</v>
+            <v>1320331</v>
           </cell>
           <cell r="U95">
-            <v>750.62099999999998</v>
+            <v>1320.3309999999999</v>
           </cell>
           <cell r="AA95">
             <v>920001</v>
           </cell>
-          <cell r="AG95">
-            <v>6663.0889999999999</v>
-          </cell>
-          <cell r="AM95">
+          <cell r="AH95">
+            <v>8334.6669999999995</v>
+          </cell>
+          <cell r="AN95">
             <v>920001</v>
           </cell>
-          <cell r="AS95">
-            <v>4923.8590000000004</v>
+          <cell r="AT95">
+            <v>5594.3810000000003</v>
           </cell>
         </row>
         <row r="96">
           <cell r="C96">
             <v>930001</v>
           </cell>
+          <cell r="E96">
+            <v>996638000</v>
+          </cell>
           <cell r="I96">
-            <v>543.11300000000006</v>
+            <v>996.63800000000003</v>
           </cell>
           <cell r="O96">
             <v>930001</v>
           </cell>
           <cell r="T96">
-            <v>752060</v>
+            <v>1264381</v>
           </cell>
           <cell r="U96">
-            <v>752.06</v>
+            <v>1264.3810000000001</v>
           </cell>
           <cell r="AA96">
             <v>930001</v>
           </cell>
-          <cell r="AG96">
-            <v>6198.4210000000003</v>
-          </cell>
-          <cell r="AM96">
+          <cell r="AH96">
+            <v>8535.8670000000002</v>
+          </cell>
+          <cell r="AN96">
             <v>930001</v>
           </cell>
-          <cell r="AS96">
-            <v>5276.5640000000003</v>
+          <cell r="AT96">
+            <v>6040.558</v>
           </cell>
         </row>
         <row r="97">
           <cell r="C97">
             <v>940001</v>
           </cell>
+          <cell r="E97">
+            <v>1047989000</v>
+          </cell>
           <cell r="I97">
-            <v>534.23800000000006</v>
+            <v>1047.989</v>
           </cell>
           <cell r="O97">
             <v>940001</v>
           </cell>
           <cell r="T97">
-            <v>769322</v>
+            <v>1299807</v>
           </cell>
           <cell r="U97">
-            <v>769.322</v>
+            <v>1299.807</v>
           </cell>
           <cell r="AA97">
             <v>940001</v>
           </cell>
-          <cell r="AG97">
-            <v>6747.9449999999997</v>
-          </cell>
-          <cell r="AM97">
+          <cell r="AH97">
+            <v>8938.4150000000009</v>
+          </cell>
+          <cell r="AN97">
             <v>940001</v>
           </cell>
-          <cell r="AS97">
-            <v>4677.9189999999999</v>
+          <cell r="AT97">
+            <v>6203.76</v>
           </cell>
         </row>
         <row r="98">
           <cell r="C98">
             <v>950001</v>
           </cell>
+          <cell r="E98">
+            <v>1034986000</v>
+          </cell>
           <cell r="I98">
-            <v>558.77300000000002</v>
+            <v>1034.9860000000001</v>
           </cell>
           <cell r="O98">
             <v>950001</v>
           </cell>
           <cell r="T98">
-            <v>759057</v>
+            <v>1301820</v>
           </cell>
           <cell r="U98">
-            <v>759.05700000000002</v>
+            <v>1301.82</v>
           </cell>
           <cell r="AA98">
             <v>950001</v>
           </cell>
-          <cell r="AG98">
-            <v>7057.884</v>
-          </cell>
-          <cell r="AM98">
+          <cell r="AH98">
+            <v>7857.7420000000002</v>
+          </cell>
+          <cell r="AN98">
             <v>950001</v>
           </cell>
-          <cell r="AS98">
-            <v>4746.26</v>
+          <cell r="AT98">
+            <v>6285.1260000000002</v>
           </cell>
         </row>
         <row r="99">
           <cell r="C99">
             <v>960001</v>
           </cell>
+          <cell r="E99">
+            <v>1029618000</v>
+          </cell>
           <cell r="I99">
-            <v>589.64599999999996</v>
+            <v>1029.6179999999999</v>
           </cell>
           <cell r="O99">
             <v>960001</v>
           </cell>
           <cell r="T99">
-            <v>786995</v>
+            <v>1338798</v>
           </cell>
           <cell r="U99">
-            <v>786.995</v>
+            <v>1338.798</v>
           </cell>
           <cell r="AA99">
             <v>960001</v>
           </cell>
-          <cell r="AG99">
-            <v>7432.9070000000002</v>
-          </cell>
-          <cell r="AM99">
+          <cell r="AH99">
+            <v>8136.0919999999996</v>
+          </cell>
+          <cell r="AN99">
             <v>960001</v>
           </cell>
-          <cell r="AS99">
-            <v>4690.9750000000004</v>
+          <cell r="AT99">
+            <v>6539.82</v>
           </cell>
         </row>
         <row r="100">
           <cell r="C100">
             <v>970001</v>
           </cell>
+          <cell r="E100">
+            <v>1056132000</v>
+          </cell>
           <cell r="I100">
-            <v>553.49300000000005</v>
+            <v>1056.1320000000001</v>
           </cell>
           <cell r="O100">
             <v>970001</v>
           </cell>
           <cell r="T100">
-            <v>762512</v>
+            <v>1417271</v>
           </cell>
           <cell r="U100">
-            <v>762.51199999999994</v>
+            <v>1417.271</v>
           </cell>
           <cell r="AA100">
             <v>970001</v>
           </cell>
-          <cell r="AG100">
-            <v>7502.6949999999997</v>
-          </cell>
-          <cell r="AM100">
+          <cell r="AH100">
+            <v>8068.951</v>
+          </cell>
+          <cell r="AN100">
             <v>970001</v>
           </cell>
-          <cell r="AS100">
-            <v>4735.8519999999999</v>
+          <cell r="AT100">
+            <v>5718.607</v>
           </cell>
         </row>
         <row r="101">
           <cell r="C101">
             <v>980001</v>
           </cell>
+          <cell r="E101">
+            <v>1103430000</v>
+          </cell>
           <cell r="I101">
-            <v>544.08600000000001</v>
+            <v>1103.43</v>
           </cell>
           <cell r="O101">
             <v>980001</v>
           </cell>
           <cell r="T101">
-            <v>771382</v>
+            <v>1738899</v>
           </cell>
           <cell r="U101">
-            <v>771.38199999999995</v>
+            <v>1738.8989999999999</v>
           </cell>
           <cell r="AA101">
             <v>980001</v>
           </cell>
-          <cell r="AG101">
-            <v>7612.3280000000004</v>
-          </cell>
-          <cell r="AM101">
+          <cell r="AH101">
+            <v>8102.1760000000004</v>
+          </cell>
+          <cell r="AN101">
             <v>980001</v>
           </cell>
-          <cell r="AS101">
-            <v>4753.03</v>
+          <cell r="AT101">
+            <v>6255.8239999999996</v>
           </cell>
         </row>
         <row r="102">
           <cell r="C102">
             <v>990001</v>
           </cell>
+          <cell r="E102">
+            <v>1251817000</v>
+          </cell>
           <cell r="I102">
-            <v>552.976</v>
+            <v>1251.817</v>
           </cell>
           <cell r="O102">
             <v>990001</v>
           </cell>
           <cell r="T102">
-            <v>816525</v>
+            <v>1362445</v>
           </cell>
           <cell r="U102">
-            <v>816.52499999999998</v>
+            <v>1362.4449999999999</v>
           </cell>
           <cell r="AA102">
             <v>990001</v>
           </cell>
-          <cell r="AG102">
-            <v>7453.4769999999999</v>
-          </cell>
-          <cell r="AM102">
+          <cell r="AH102">
+            <v>8186.3519999999999</v>
+          </cell>
+          <cell r="AN102">
             <v>990001</v>
           </cell>
-          <cell r="AS102">
-            <v>5171.4530000000004</v>
+          <cell r="AT102">
+            <v>6416.7749999999996</v>
           </cell>
         </row>
         <row r="103">
           <cell r="C103">
-            <v>1000000</v>
+            <v>1000001</v>
+          </cell>
+          <cell r="E103">
+            <v>1252879000</v>
           </cell>
           <cell r="I103">
-            <v>609.41999999999996</v>
+            <v>1252.8789999999999</v>
           </cell>
           <cell r="O103">
-            <v>1000000</v>
+            <v>1000001</v>
           </cell>
           <cell r="T103">
-            <v>806274</v>
+            <v>1344173</v>
           </cell>
           <cell r="U103">
-            <v>806.274</v>
+            <v>1344.173</v>
           </cell>
           <cell r="AA103">
-            <v>1000000</v>
-          </cell>
-          <cell r="AG103">
-            <v>7250.6469999999999</v>
-          </cell>
-          <cell r="AM103">
-            <v>1000000</v>
-          </cell>
-          <cell r="AS103">
-            <v>4943.2060000000001</v>
+            <v>1000001</v>
+          </cell>
+          <cell r="AH103">
+            <v>8505.2250000000004</v>
+          </cell>
+          <cell r="AN103">
+            <v>1000001</v>
+          </cell>
+          <cell r="AT103">
+            <v>6599.951</v>
           </cell>
         </row>
       </sheetData>
@@ -7954,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7ADD28-3A7C-2B44-AD4E-0F1CBD73A001}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
